--- a/app/demo/demo_titin_gel.xlsx
+++ b/app/demo/demo_titin_gel.xlsx
@@ -21,7 +21,7 @@
     <t>image_file</t>
   </si>
   <si>
-    <t>C:\utku\GelBox\app\website\pages\tutorial\start_new_analysis\media\example_gel_images\DCM GEL 2 2023-07-11(Oriole).raw16.tif</t>
+    <t>C:\utku\GitHub\GelBox\app\website\pages\tutorial\start_new_analysis\media\example_gel_images\DCM GEL 2 2023-07-11(Oriole).raw16.tif</t>
   </si>
   <si>
     <t>box</t>
@@ -146,14 +146,14 @@
   <dimension ref="A1:M3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="119.42578125" customWidth="true"/>
+    <col min="1" max="1" width="126.42578125" customWidth="true"/>
     <col min="2" max="2" width="4.42578125" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
     <col min="4" max="4" width="16.28515625" customWidth="true"/>
     <col min="5" max="5" width="18" customWidth="true"/>
     <col min="6" max="6" width="14.42578125" customWidth="true"/>
     <col min="7" max="7" width="11.7109375" customWidth="true"/>
-    <col min="8" max="8" width="11.7109375" customWidth="true"/>
+    <col min="8" max="8" width="10.7109375" customWidth="true"/>
     <col min="9" max="9" width="11.7109375" customWidth="true"/>
     <col min="10" max="10" width="12.28515625" customWidth="true"/>
     <col min="11" max="11" width="12.7109375" customWidth="true"/>
@@ -210,28 +210,28 @@
         <v>1</v>
       </c>
       <c r="C2" s="0">
-        <v>1455407.8627450978</v>
+        <v>1458057.6607142857</v>
       </c>
       <c r="D2" s="0">
-        <v>1195838.0784313725</v>
+        <v>1157741.2500000002</v>
       </c>
       <c r="E2" s="0">
-        <v>196171.17624821287</v>
+        <v>213436.90095967549</v>
       </c>
       <c r="F2" s="0">
-        <v>67374.063299095025</v>
+        <v>81478.013027737703</v>
       </c>
       <c r="G2" s="0">
-        <v>587.41049409058871</v>
+        <v>585.6772015222482</v>
       </c>
       <c r="H2" s="0">
-        <v>1101.2288134949645</v>
+        <v>1095.2900696159043</v>
       </c>
       <c r="I2" s="0">
-        <v>49.64510518230918</v>
+        <v>55.006418748586725</v>
       </c>
       <c r="J2" s="0">
-        <v>102.96866624299764</v>
+        <v>104.77061790225002</v>
       </c>
       <c r="K2" s="0">
         <v>2</v>
@@ -240,7 +240,7 @@
         <v>2</v>
       </c>
       <c r="M2" s="0">
-        <v>0.99226232766495925</v>
+        <v>0.99442683891116046</v>
       </c>
     </row>
     <row r="3">
@@ -249,28 +249,28 @@
         <v>2</v>
       </c>
       <c r="C3" s="0">
-        <v>1471106.6176470588</v>
+        <v>1502952.6696428573</v>
       </c>
       <c r="D3" s="0">
-        <v>1199888.4019607843</v>
+        <v>1248535.3125</v>
       </c>
       <c r="E3" s="0">
-        <v>182107.77291956751</v>
+        <v>175764.6882120315</v>
       </c>
       <c r="F3" s="0">
-        <v>87491.721767293275</v>
+        <v>83659.719090177357</v>
       </c>
       <c r="G3" s="0">
-        <v>737.41049409058883</v>
+        <v>732.3072329948742</v>
       </c>
       <c r="H3" s="0">
-        <v>1086.2983568897298</v>
+        <v>1087.9278099795304</v>
       </c>
       <c r="I3" s="0">
-        <v>49.64510518230918</v>
+        <v>55.006418748586725</v>
       </c>
       <c r="J3" s="0">
-        <v>102.96866624299764</v>
+        <v>104.77061790225002</v>
       </c>
       <c r="K3" s="0">
         <v>2</v>
@@ -279,7 +279,7 @@
         <v>2</v>
       </c>
       <c r="M3" s="0">
-        <v>0.9922958028976897</v>
+        <v>0.99059603963231335</v>
       </c>
     </row>
   </sheetData>
@@ -288,7 +288,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F105"/>
+  <dimension ref="A1:F107"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="true"/>
@@ -321,2082 +321,2122 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>14411.725490196079</v>
+        <v>13381.321428571429</v>
       </c>
       <c r="B2" s="0">
         <v>1</v>
       </c>
       <c r="C2" s="0">
-        <v>1.4270049134774443e-06</v>
+        <v>0.0033329594855574739</v>
       </c>
       <c r="D2" s="0">
-        <v>14411.725490196079</v>
+        <v>13381.321428571429</v>
       </c>
       <c r="E2" s="0">
-        <v>1.4270049134774443e-06</v>
+        <v>0.0033329594855522494</v>
       </c>
       <c r="F2" s="0">
-        <v>3.2593906110393229e-29</v>
+        <v>5.2246672458822607e-15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>14136.823529411764</v>
+        <v>13244.928571428571</v>
       </c>
       <c r="B3" s="0">
         <v>2</v>
       </c>
       <c r="C3" s="0">
-        <v>5.0842556786757977e-06</v>
+        <v>0.0085451870877532362</v>
       </c>
       <c r="D3" s="0">
-        <v>14357.324576432515</v>
+        <v>13336.460204081633</v>
       </c>
       <c r="E3" s="0">
-        <v>5.0842556786757977e-06</v>
+        <v>0.008545187087734149</v>
       </c>
       <c r="F3" s="0">
-        <v>2.9189140793293143e-28</v>
+        <v>1.9086584975660994e-14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>13826.588235294117</v>
+        <v>13142.410714285714</v>
       </c>
       <c r="B4" s="0">
         <v>3</v>
       </c>
       <c r="C4" s="0">
-        <v>1.7474213149341983e-05</v>
+        <v>0.021264318525465602</v>
       </c>
       <c r="D4" s="0">
-        <v>14302.923662668951</v>
+        <v>13291.598979591838</v>
       </c>
       <c r="E4" s="0">
-        <v>1.7474213149341983e-05</v>
+        <v>0.021264318525397299</v>
       </c>
       <c r="F4" s="0">
-        <v>2.5293409863606493e-27</v>
+        <v>6.8303655643414835e-14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>13569.372549019608</v>
+        <v>13087.107142857143</v>
       </c>
       <c r="B5" s="0">
         <v>4</v>
       </c>
       <c r="C5" s="0">
-        <v>5.793435925328568e-05</v>
+        <v>0.051359373225476797</v>
       </c>
       <c r="D5" s="0">
-        <v>14248.522748905387</v>
+        <v>13246.737755102042</v>
       </c>
       <c r="E5" s="0">
-        <v>5.793435925328568e-05</v>
+        <v>0.051359373225237349</v>
       </c>
       <c r="F5" s="0">
-        <v>2.1207751246428609e-26</v>
+        <v>2.3944500907381912e-13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>13269.431372549019</v>
+        <v>13089.75</v>
       </c>
       <c r="B6" s="0">
         <v>5</v>
       </c>
       <c r="C6" s="0">
-        <v>0.00018528621935647607</v>
+        <v>0.12039995194302354</v>
       </c>
       <c r="D6" s="0">
-        <v>14194.121835141825</v>
+        <v>13201.876530612246</v>
       </c>
       <c r="E6" s="0">
-        <v>0.00018528621935647607</v>
+        <v>0.12039995194220127</v>
       </c>
       <c r="F6" s="0">
-        <v>1.7206123230000579e-25</v>
+        <v>8.2226869023187468e-13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>13129.549019607843</v>
+        <v>13052.714285714286</v>
       </c>
       <c r="B7" s="0">
         <v>6</v>
       </c>
       <c r="C7" s="0">
-        <v>0.00057163441101381967</v>
+        <v>0.27394997462403164</v>
       </c>
       <c r="D7" s="0">
-        <v>14139.720921378261</v>
+        <v>13157.01530612245</v>
       </c>
       <c r="E7" s="0">
-        <v>0.00057163441101381967</v>
+        <v>0.27394997462126552</v>
       </c>
       <c r="F7" s="0">
-        <v>1.3507426288994532e-24</v>
+        <v>2.7660997786888269e-12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>13052.882352941177</v>
+        <v>13113.803571428571</v>
       </c>
       <c r="B8" s="0">
         <v>7</v>
       </c>
       <c r="C8" s="0">
-        <v>0.0017012257259960469</v>
+        <v>0.60499887627145921</v>
       </c>
       <c r="D8" s="0">
-        <v>14085.320007614697</v>
+        <v>13112.154081632654</v>
       </c>
       <c r="E8" s="0">
-        <v>0.0017012257259960469</v>
+        <v>0.60499887626234394</v>
       </c>
       <c r="F8" s="0">
-        <v>1.0260377804241075e-23</v>
+        <v>9.1152388572135961e-12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>13013.568627450981</v>
+        <v>13259.321428571429</v>
       </c>
       <c r="B9" s="0">
         <v>8</v>
       </c>
       <c r="C9" s="0">
-        <v>0.0048839797126141813</v>
+        <v>1.2968096211583324</v>
       </c>
       <c r="D9" s="0">
-        <v>14030.919093851133</v>
+        <v>13067.292857142858</v>
       </c>
       <c r="E9" s="0">
-        <v>0.0048839797126141813</v>
+        <v>1.2968096211289075</v>
       </c>
       <c r="F9" s="0">
-        <v>7.5414571509705068e-23</v>
+        <v>2.9424858865663174e-11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>13029.470588235294</v>
+        <v>13181.392857142857</v>
       </c>
       <c r="B10" s="0">
         <v>9</v>
       </c>
       <c r="C10" s="0">
-        <v>0.013525523823671632</v>
+        <v>2.6979645089907107</v>
       </c>
       <c r="D10" s="0">
-        <v>13976.518180087569</v>
+        <v>13022.431632653062</v>
       </c>
       <c r="E10" s="0">
-        <v>0.013525523823671632</v>
+        <v>2.6979645088976629</v>
       </c>
       <c r="F10" s="0">
-        <v>5.3635008296706977e-22</v>
+        <v>9.3047958044425779e-11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>13006.64705882353</v>
+        <v>13198.696428571429</v>
       </c>
       <c r="B11" s="0">
         <v>10</v>
       </c>
       <c r="C11" s="0">
-        <v>0.036132887489441323</v>
+        <v>5.4479685679286423</v>
       </c>
       <c r="D11" s="0">
-        <v>13922.117266324005</v>
+        <v>12977.570408163267</v>
       </c>
       <c r="E11" s="0">
-        <v>0.036132887489441323</v>
+        <v>5.4479685676404079</v>
       </c>
       <c r="F11" s="0">
-        <v>3.690987764124825e-21</v>
+        <v>2.8823414602703846e-10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>13064.666666666666</v>
+        <v>13317.178571428571</v>
       </c>
       <c r="B12" s="0">
         <v>11</v>
       </c>
       <c r="C12" s="0">
-        <v>0.093114984747149923</v>
+        <v>10.677542448573341</v>
       </c>
       <c r="D12" s="0">
-        <v>13867.716352560441</v>
+        <v>12932.709183673471</v>
       </c>
       <c r="E12" s="0">
-        <v>0.093114984747149923</v>
+        <v>10.6775424476987</v>
       </c>
       <c r="F12" s="0">
-        <v>2.4577518283348659e-20</v>
+        <v>8.7464160915217102e-10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>13222.509803921568</v>
+        <v>13450.160714285714</v>
       </c>
       <c r="B13" s="0">
         <v>12</v>
       </c>
       <c r="C13" s="0">
-        <v>0.23147538591210864</v>
+        <v>20.311704632833454</v>
       </c>
       <c r="D13" s="0">
-        <v>13813.315438796879</v>
+        <v>12887.847959183675</v>
       </c>
       <c r="E13" s="0">
-        <v>0.23147538591210864</v>
+        <v>20.311704630233528</v>
       </c>
       <c r="F13" s="0">
-        <v>1.5835603503975628e-19</v>
+        <v>2.5999258549668941e-09</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>13156.392156862745</v>
+        <v>13559.107142857143</v>
       </c>
       <c r="B14" s="0">
         <v>13</v>
       </c>
       <c r="C14" s="0">
-        <v>0.55508359178660738</v>
+        <v>37.502462969417969</v>
       </c>
       <c r="D14" s="0">
-        <v>13758.914525033315</v>
+        <v>12842.986734693879</v>
       </c>
       <c r="E14" s="0">
-        <v>0.55508359178660738</v>
+        <v>37.502462961847236</v>
       </c>
       <c r="F14" s="0">
-        <v>9.8726190550348923e-19</v>
+        <v>7.5707327398601426e-09</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>13166.568627450981</v>
+        <v>13605.589285714286</v>
       </c>
       <c r="B15" s="0">
         <v>14</v>
       </c>
       <c r="C15" s="0">
-        <v>1.2840451519836569</v>
+        <v>67.206543810057468</v>
       </c>
       <c r="D15" s="0">
-        <v>13704.513611269751</v>
+        <v>12798.125510204081</v>
       </c>
       <c r="E15" s="0">
-        <v>1.2840451519836569</v>
+        <v>67.206543788462085</v>
       </c>
       <c r="F15" s="0">
-        <v>5.9556793706967357e-18</v>
+        <v>2.1595386976998503e-08</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>13297.392156862745</v>
+        <v>13636.732142857143</v>
       </c>
       <c r="B16" s="0">
         <v>15</v>
       </c>
       <c r="C16" s="0">
-        <v>2.8653028632513458</v>
+        <v>116.89654765117889</v>
       </c>
       <c r="D16" s="0">
-        <v>13650.112697506187</v>
+        <v>12753.264285714286</v>
       </c>
       <c r="E16" s="0">
-        <v>2.8653028632513458</v>
+        <v>116.89654759083544</v>
       </c>
       <c r="F16" s="0">
-        <v>3.4764133381298343e-17</v>
+        <v>6.03434574363956e-08</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>13407.666666666666</v>
+        <v>13798.803571428571</v>
       </c>
       <c r="B17" s="0">
         <v>16</v>
       </c>
       <c r="C17" s="0">
-        <v>6.1677832713266953</v>
+        <v>197.34683292111777</v>
       </c>
       <c r="D17" s="0">
-        <v>13595.711783742623</v>
+        <v>12708.40306122449</v>
       </c>
       <c r="E17" s="0">
-        <v>6.1677832713266953</v>
+        <v>197.3468327559423</v>
       </c>
       <c r="F17" s="0">
-        <v>1.9635079997174715e-16</v>
+        <v>1.6517545523445295e-07</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>13510.705882352941</v>
+        <v>14008.053571428571</v>
       </c>
       <c r="B18" s="0">
         <v>17</v>
       </c>
       <c r="C18" s="0">
-        <v>12.807253573689239</v>
+        <v>323.36796204764084</v>
       </c>
       <c r="D18" s="0">
-        <v>13541.310869979059</v>
+        <v>12663.541836734694</v>
       </c>
       <c r="E18" s="0">
-        <v>12.807253573689238</v>
+        <v>323.36796160473955</v>
       </c>
       <c r="F18" s="0">
-        <v>1.0730874395829917e-15</v>
+        <v>4.4290130346957467e-07</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>13554.764705882353</v>
+        <v>14158.160714285714</v>
       </c>
       <c r="B19" s="0">
         <v>18</v>
       </c>
       <c r="C19" s="0">
-        <v>25.653772823926392</v>
+        <v>514.28300251052246</v>
       </c>
       <c r="D19" s="0">
-        <v>13486.909956215495</v>
+        <v>12618.680612244898</v>
       </c>
       <c r="E19" s="0">
-        <v>25.653772823926385</v>
+        <v>514.28300134716142</v>
       </c>
       <c r="F19" s="0">
-        <v>5.674645252657977e-15</v>
+        <v>1.1633610730254464e-06</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>13592.862745098038</v>
+        <v>14326.607142857143</v>
       </c>
       <c r="B20" s="0">
         <v>19</v>
       </c>
       <c r="C20" s="0">
-        <v>49.569531406199836</v>
+        <v>793.86326255418487</v>
       </c>
       <c r="D20" s="0">
-        <v>13432.509042451933</v>
+        <v>12573.819387755102</v>
       </c>
       <c r="E20" s="0">
-        <v>49.569531406199808</v>
+        <v>793.86325956076098</v>
       </c>
       <c r="F20" s="0">
-        <v>2.9036448208155892e-14</v>
+        <v>2.9934238927266656e-06</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>13762.803921568628</v>
+        <v>14630.035714285714</v>
       </c>
       <c r="B21" s="0">
         <v>20</v>
       </c>
       <c r="C21" s="0">
-        <v>92.394626662255334</v>
+        <v>1189.3990615364617</v>
       </c>
       <c r="D21" s="0">
-        <v>13378.108128688369</v>
+        <v>12528.958163265306</v>
       </c>
       <c r="E21" s="0">
-        <v>92.394626662255192</v>
+        <v>1189.3990539913088</v>
       </c>
       <c r="F21" s="0">
-        <v>1.4376376408701465e-13</v>
+        <v>7.5451527621262441e-06</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>13997.431372549019</v>
+        <v>14917.964285714286</v>
       </c>
       <c r="B22" s="0">
         <v>21</v>
       </c>
       <c r="C22" s="0">
-        <v>166.12957312334507</v>
+        <v>1729.6085824799443</v>
       </c>
       <c r="D22" s="0">
-        <v>13323.707214924805</v>
+        <v>12484.09693877551</v>
       </c>
       <c r="E22" s="0">
-        <v>166.12957312334439</v>
+        <v>1729.6085638498962</v>
       </c>
       <c r="F22" s="0">
-        <v>6.8874196881538834e-13</v>
+        <v>1.8630048129900821e-05</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>14141.568627450981</v>
+        <v>15201.107142857143</v>
       </c>
       <c r="B23" s="0">
         <v>22</v>
       </c>
       <c r="C23" s="0">
-        <v>288.14793790893901</v>
+        <v>2441.2172250902086</v>
       </c>
       <c r="D23" s="0">
-        <v>13269.306301161241</v>
+        <v>12439.235714285714</v>
       </c>
       <c r="E23" s="0">
-        <v>288.14793790893583</v>
+        <v>2441.2171800286674</v>
       </c>
       <c r="F23" s="0">
-        <v>3.1927493807878641e-12</v>
+        <v>4.5061541062293589e-05</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>14312.64705882353</v>
+        <v>15794.285714285714</v>
       </c>
       <c r="B24" s="0">
         <v>23</v>
       </c>
       <c r="C24" s="0">
-        <v>482.1169666477179</v>
+        <v>3344.2857219181387</v>
       </c>
       <c r="D24" s="0">
-        <v>13214.905387397677</v>
+        <v>12394.374489795919</v>
       </c>
       <c r="E24" s="0">
-        <v>482.11696664770358</v>
+        <v>3344.285615149372</v>
       </c>
       <c r="F24" s="0">
-        <v>1.4321030839647136e-11</v>
+        <v>0.00010676876685135576</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>14628.196078431372</v>
+        <v>16525.517857142859</v>
       </c>
       <c r="B25" s="0">
         <v>24</v>
       </c>
       <c r="C25" s="0">
-        <v>778.13983321512478</v>
+        <v>4446.7087055063348</v>
       </c>
       <c r="D25" s="0">
-        <v>13160.504473634113</v>
+        <v>12349.513265306123</v>
       </c>
       <c r="E25" s="0">
-        <v>778.13983321506259</v>
+        <v>4446.7084576907946</v>
       </c>
       <c r="F25" s="0">
-        <v>6.2156263571142392e-11</v>
+        <v>0.00024781554016527446</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>14918.254901960785</v>
+        <v>17401.803571428572</v>
       </c>
       <c r="B26" s="0">
         <v>25</v>
       </c>
       <c r="C26" s="0">
-        <v>1211.5217417602114</v>
+        <v>5738.684478535798</v>
       </c>
       <c r="D26" s="0">
-        <v>13106.103559870549</v>
+        <v>12304.652040816327</v>
       </c>
       <c r="E26" s="0">
-        <v>1211.5217417599504</v>
+        <v>5738.6839150811438</v>
       </c>
       <c r="F26" s="0">
-        <v>2.6103376552417753e-10</v>
+        <v>0.00056345465405913825</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>15196.098039215687</v>
+        <v>18678.660714285714</v>
       </c>
       <c r="B27" s="0">
         <v>26</v>
       </c>
       <c r="C27" s="0">
-        <v>1819.5881914366223</v>
+        <v>7188.2699947280025</v>
       </c>
       <c r="D27" s="0">
-        <v>13051.702646106987</v>
+        <v>12259.790816326531</v>
       </c>
       <c r="E27" s="0">
-        <v>1819.5881914355616</v>
+        <v>7188.2687397516938</v>
       </c>
       <c r="F27" s="0">
-        <v>1.060741709238739e-09</v>
+        <v>0.0012549763090724054</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>15797.882352941177</v>
+        <v>20252.428571428572</v>
       </c>
       <c r="B28" s="0">
         <v>27</v>
       </c>
       <c r="C28" s="0">
-        <v>2636.2302540089431</v>
+        <v>8739.2627014554655</v>
       </c>
       <c r="D28" s="0">
-        <v>12997.301732343423</v>
+        <v>12214.929591836735</v>
       </c>
       <c r="E28" s="0">
-        <v>2636.2302540047722</v>
+        <v>8739.259963299337</v>
       </c>
       <c r="F28" s="0">
-        <v>4.1708423316102711e-09</v>
+        <v>0.0027381561292751182</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>16554.235294117647</v>
+        <v>22103.75</v>
       </c>
       <c r="B29" s="0">
         <v>28</v>
       </c>
       <c r="C29" s="0">
-        <v>3684.3586752710075</v>
+        <v>10312.491660950618</v>
       </c>
       <c r="D29" s="0">
-        <v>12942.900818579859</v>
+        <v>12170.068367346939</v>
       </c>
       <c r="E29" s="0">
-        <v>3684.3586752551391</v>
+        <v>10312.485808644809</v>
       </c>
       <c r="F29" s="0">
-        <v>1.5868616641892226e-08</v>
+        <v>0.0058523058082948854</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>17444.313725490196</v>
+        <v>23971.642857142859</v>
       </c>
       <c r="B30" s="0">
         <v>29</v>
       </c>
       <c r="C30" s="0">
-        <v>4967.1674151583047</v>
+        <v>11811.114304981267</v>
       </c>
       <c r="D30" s="0">
-        <v>12888.499904816295</v>
+        <v>12125.207142857143</v>
       </c>
       <c r="E30" s="0">
-        <v>4967.1674150998851</v>
+        <v>11811.102051995214</v>
       </c>
       <c r="F30" s="0">
-        <v>5.8419190293678025e-08</v>
+        <v>0.012252986052428914</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>18758.392156862745</v>
+        <v>25590.482142857141</v>
       </c>
       <c r="B31" s="0">
         <v>30</v>
       </c>
       <c r="C31" s="0">
-        <v>6459.8736833582198</v>
+        <v>13129.756254947939</v>
       </c>
       <c r="D31" s="0">
-        <v>12834.098991052731</v>
+        <v>12080.345918367348</v>
       </c>
       <c r="E31" s="0">
-        <v>6459.8736831501192</v>
+        <v>13129.731124340282</v>
       </c>
       <c r="F31" s="0">
-        <v>2.0810052076659062e-07</v>
+        <v>0.025130607657088407</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>20403.607843137255</v>
+        <v>26674.75</v>
       </c>
       <c r="B32" s="0">
         <v>31</v>
       </c>
       <c r="C32" s="0">
-        <v>8104.152159748216</v>
+        <v>14166.453598124695</v>
       </c>
       <c r="D32" s="0">
-        <v>12779.698077289167</v>
+        <v>12035.484693877552</v>
       </c>
       <c r="E32" s="0">
-        <v>8104.1521590309303</v>
+        <v>14166.403107567414</v>
       </c>
       <c r="F32" s="0">
-        <v>7.1728536492880959e-07</v>
+        <v>0.050490557281261957</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>22315.058823529413</v>
+        <v>27290.696428571428</v>
       </c>
       <c r="B33" s="0">
         <v>32</v>
       </c>
       <c r="C33" s="0">
-        <v>9807.5262658193587</v>
+        <v>14835.583083783973</v>
       </c>
       <c r="D33" s="0">
-        <v>12725.297163525604</v>
+        <v>11990.623469387756</v>
       </c>
       <c r="E33" s="0">
-        <v>9807.5262634270784</v>
+        <v>14835.48371191413</v>
       </c>
       <c r="F33" s="0">
-        <v>2.3922796264188599e-06</v>
+        <v>0.099371869843557475</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>24227.196078431374</v>
+        <v>27325.964285714286</v>
       </c>
       <c r="B34" s="0">
         <v>33</v>
       </c>
       <c r="C34" s="0">
-        <v>11449.320323725628</v>
+        <v>15079.526222854545</v>
       </c>
       <c r="D34" s="0">
-        <v>12670.896249762041</v>
+        <v>11945.76224489796</v>
       </c>
       <c r="E34" s="0">
-        <v>11449.320316005347</v>
+        <v>15079.334637245922</v>
       </c>
       <c r="F34" s="0">
-        <v>7.7202805485789925e-06</v>
+        <v>0.19158560862401794</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>25853.666666666668</v>
+        <v>26741.357142857141</v>
       </c>
       <c r="B35" s="0">
         <v>34</v>
       </c>
       <c r="C35" s="0">
-        <v>12893.42401399126</v>
+        <v>14855.528576175226</v>
       </c>
       <c r="D35" s="0">
-        <v>12616.495335998477</v>
+        <v>11900.901020408164</v>
       </c>
       <c r="E35" s="0">
-        <v>12893.423989883582</v>
+        <v>14855.166742963134</v>
       </c>
       <c r="F35" s="0">
-        <v>2.4107678573108665e-05</v>
+        <v>0.3618332120908388</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>26878.588235294119</v>
+        <v>25853.303571428572</v>
       </c>
       <c r="B36" s="0">
         <v>35</v>
       </c>
       <c r="C36" s="0">
-        <v>14006.355909332695</v>
+        <v>14159.971935772706</v>
       </c>
       <c r="D36" s="0">
-        <v>12562.094422234914</v>
+        <v>11856.039795918368</v>
       </c>
       <c r="E36" s="0">
-        <v>14006.355836491197</v>
+        <v>14159.302513596096</v>
       </c>
       <c r="F36" s="0">
-        <v>7.284149845823869e-05</v>
+        <v>0.66942217661001557</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>27390.705882352941</v>
+        <v>24662.767857142859</v>
       </c>
       <c r="B37" s="0">
         <v>36</v>
       </c>
       <c r="C37" s="0">
-        <v>14677.442434826193</v>
+        <v>13059.124117590361</v>
       </c>
       <c r="D37" s="0">
-        <v>12507.69350847135</v>
+        <v>11811.178571428572</v>
       </c>
       <c r="E37" s="0">
-        <v>14677.442221863505</v>
+        <v>13057.910902266865</v>
       </c>
       <c r="F37" s="0">
-        <v>0.00021296268771664771</v>
+        <v>1.2132153234954464</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>27321.431372549021</v>
+        <v>23242.285714285714</v>
       </c>
       <c r="B38" s="0">
         <v>37</v>
       </c>
       <c r="C38" s="0">
-        <v>14836.92678510427</v>
+        <v>11653.418131920715</v>
       </c>
       <c r="D38" s="0">
-        <v>12453.292594707786</v>
+        <v>11766.317346938777</v>
       </c>
       <c r="E38" s="0">
-        <v>14836.926182642717</v>
+        <v>11651.264250441209</v>
       </c>
       <c r="F38" s="0">
-        <v>0.00060246155188617314</v>
+        <v>2.1538814795060781</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>26642.411764705881</v>
+        <v>21692.357142857141</v>
       </c>
       <c r="B39" s="0">
         <v>38</v>
       </c>
       <c r="C39" s="0">
-        <v>14467.912536899577</v>
+        <v>10062.400897867212</v>
       </c>
       <c r="D39" s="0">
-        <v>12398.891680944222</v>
+        <v>11721.456122448981</v>
       </c>
       <c r="E39" s="0">
-        <v>14467.910887764148</v>
+        <v>10058.655035292468</v>
       </c>
       <c r="F39" s="0">
-        <v>0.0016491354298872867</v>
+        <v>3.7458625747438257</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>25651.392156862745</v>
+        <v>20068.071428571428</v>
       </c>
       <c r="B40" s="0">
         <v>39</v>
       </c>
       <c r="C40" s="0">
-        <v>13609.312493884336</v>
+        <v>8408.2192570103362</v>
       </c>
       <c r="D40" s="0">
-        <v>12344.490767180658</v>
+        <v>11676.594897959185</v>
       </c>
       <c r="E40" s="0">
-        <v>13609.308125865755</v>
+        <v>8401.8376801825725</v>
       </c>
       <c r="F40" s="0">
-        <v>0.0043680185808569177</v>
+        <v>6.3815768277638956</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>24388.941176470587</v>
+        <v>18410.321428571428</v>
       </c>
       <c r="B41" s="0">
         <v>40</v>
       </c>
       <c r="C41" s="0">
-        <v>12349.091119406827</v>
+        <v>6800.7500187270925</v>
       </c>
       <c r="D41" s="0">
-        <v>12290.089853417096</v>
+        <v>11631.733673469389</v>
       </c>
       <c r="E41" s="0">
-        <v>12349.079924672249</v>
+        <v>6790.1000020630618</v>
       </c>
       <c r="F41" s="0">
-        <v>0.011194734578412987</v>
+        <v>10.650016664030623</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>22919.784313725489</v>
+        <v>16920.053571428572</v>
       </c>
       <c r="B42" s="0">
         <v>41</v>
       </c>
       <c r="C42" s="0">
-        <v>10809.425283190641</v>
+        <v>5326.8122573193441</v>
       </c>
       <c r="D42" s="0">
-        <v>12235.688939653532</v>
+        <v>11586.872448979593</v>
       </c>
       <c r="E42" s="0">
-        <v>10809.397521603316</v>
+        <v>5309.4014585522027</v>
       </c>
       <c r="F42" s="0">
-        <v>0.027761587325277826</v>
+        <v>17.41079876714117</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>21346.49019607843</v>
+        <v>15623.357142857143</v>
       </c>
       <c r="B43" s="0">
         <v>42</v>
       </c>
       <c r="C43" s="0">
-        <v>9127.2485668964073</v>
+        <v>4044.7035145747532</v>
       </c>
       <c r="D43" s="0">
-        <v>12181.288025889968</v>
+        <v>11542.011224489795</v>
       </c>
       <c r="E43" s="0">
-        <v>9127.1819512945167</v>
+        <v>4016.8209171638055</v>
       </c>
       <c r="F43" s="0">
-        <v>0.066615601890587128</v>
+        <v>27.882597410947657</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>19715.215686274511</v>
+        <v>14485.946428571429</v>
       </c>
       <c r="B44" s="0">
         <v>43</v>
       </c>
       <c r="C44" s="0">
-        <v>7434.4577234195931</v>
+        <v>2984.0093078356913</v>
       </c>
       <c r="D44" s="0">
-        <v>12126.887112126404</v>
+        <v>11497.15</v>
       </c>
       <c r="E44" s="0">
-        <v>7434.3030524573805</v>
+        <v>2940.2677865074693</v>
       </c>
       <c r="F44" s="0">
-        <v>0.15467096221266977</v>
+        <v>43.74152132822217</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>18060.725490196077</v>
+        <v>13589.946428571429</v>
       </c>
       <c r="B45" s="0">
         <v>44</v>
       </c>
       <c r="C45" s="0">
-        <v>5841.682921980133</v>
+        <v>2149.5947164713662</v>
       </c>
       <c r="D45" s="0">
-        <v>12072.48619836284</v>
+        <v>11452.288775510204</v>
       </c>
       <c r="E45" s="0">
-        <v>5841.3354315990064</v>
+        <v>2082.3743829826753</v>
       </c>
       <c r="F45" s="0">
-        <v>0.34749038112615743</v>
+        <v>67.220333488690713</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>16580.764705882353</v>
+        <v>12918.714285714286</v>
       </c>
       <c r="B46" s="0">
         <v>45</v>
       </c>
       <c r="C46" s="0">
-        <v>4428.1921301174489</v>
+        <v>1528.1092026577219</v>
       </c>
       <c r="D46" s="0">
-        <v>12018.085284599278</v>
+        <v>11407.427551020408</v>
       </c>
       <c r="E46" s="0">
-        <v>4427.4367284197733</v>
+        <v>1426.9154817678966</v>
       </c>
       <c r="F46" s="0">
-        <v>0.75540169767598264</v>
+        <v>101.1937208898252</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>15296.254901960785</v>
+        <v>12484.125</v>
       </c>
       <c r="B47" s="0">
         <v>46</v>
       </c>
       <c r="C47" s="0">
-        <v>3238.7247284813552</v>
+        <v>1095.2594115838237</v>
       </c>
       <c r="D47" s="0">
-        <v>11963.684370835712</v>
+        <v>11362.566326530612</v>
       </c>
       <c r="E47" s="0">
-        <v>3237.1357636148332</v>
+        <v>946.03063068198264</v>
       </c>
       <c r="F47" s="0">
-        <v>1.5889648665220892</v>
+        <v>149.22878090184108</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>14195.588235294117</v>
+        <v>12262.196428571429</v>
       </c>
       <c r="B48" s="0">
         <v>47</v>
       </c>
       <c r="C48" s="0">
-        <v>2286.4017089066542</v>
+        <v>822.422301221</v>
       </c>
       <c r="D48" s="0">
-        <v>11909.28345707215</v>
+        <v>11317.705102040816</v>
       </c>
       <c r="E48" s="0">
-        <v>2283.1676211383824</v>
+        <v>606.84762600522208</v>
       </c>
       <c r="F48" s="0">
-        <v>3.2340877682719502</v>
+        <v>215.57467521577789</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>13342.843137254902</v>
+        <v>12005.642857142857</v>
       </c>
       <c r="B49" s="0">
         <v>48</v>
       </c>
       <c r="C49" s="0">
-        <v>1559.7682507001396</v>
+        <v>681.69845733949592</v>
       </c>
       <c r="D49" s="0">
-        <v>11854.882543308586</v>
+        <v>11272.84387755102</v>
       </c>
       <c r="E49" s="0">
-        <v>1553.3989686955208</v>
+        <v>376.63582509359208</v>
       </c>
       <c r="F49" s="0">
-        <v>6.3692820046188272</v>
+        <v>305.06263224590379</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>12711.431372549019</v>
+        <v>11779.839285714286</v>
       </c>
       <c r="B50" s="0">
         <v>49</v>
       </c>
       <c r="C50" s="0">
-        <v>1031.6594340351926</v>
+        <v>649.05699440764943</v>
       </c>
       <c r="D50" s="0">
-        <v>11800.481629545022</v>
+        <v>11227.982653061224</v>
       </c>
       <c r="E50" s="0">
-        <v>1019.5219038430008</v>
+        <v>226.16797405883833</v>
       </c>
       <c r="F50" s="0">
-        <v>12.137530192191722</v>
+        <v>422.88902034881107</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>12313.019607843138</v>
+        <v>11719.053571428571</v>
       </c>
       <c r="B51" s="0">
         <v>50</v>
       </c>
       <c r="C51" s="0">
-        <v>667.85411682764345</v>
+        <v>705.66565458143418</v>
       </c>
       <c r="D51" s="0">
-        <v>11746.080715781458</v>
+        <v>11183.121428571429</v>
       </c>
       <c r="E51" s="0">
-        <v>645.47353681525919</v>
+        <v>131.40385284016563</v>
       </c>
       <c r="F51" s="0">
-        <v>22.380580012384215</v>
+        <v>574.26180174126853</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>12133.784313725489</v>
+        <v>11778.392857142857</v>
       </c>
       <c r="B52" s="0">
         <v>51</v>
       </c>
       <c r="C52" s="0">
-        <v>434.14223096764806</v>
+        <v>837.77275049628088</v>
       </c>
       <c r="D52" s="0">
-        <v>11691.679802017894</v>
+        <v>11138.260204081633</v>
       </c>
       <c r="E52" s="0">
-        <v>394.21092439929237</v>
+        <v>73.867364023224937</v>
       </c>
       <c r="F52" s="0">
-        <v>39.931306568355716</v>
+        <v>763.90538647305596</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>11902.764705882353</v>
+        <v>11941.553571428571</v>
       </c>
       <c r="B53" s="0">
         <v>52</v>
       </c>
       <c r="C53" s="0">
-        <v>301.18315637086437</v>
+        <v>1035.6163823829938</v>
       </c>
       <c r="D53" s="0">
-        <v>11637.27888825433</v>
+        <v>11093.398979591837</v>
       </c>
       <c r="E53" s="0">
-        <v>232.2454431568828</v>
+        <v>40.175807489441318</v>
       </c>
       <c r="F53" s="0">
-        <v>68.937713213981567</v>
+        <v>995.44057489355259</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>11696.764705882353</v>
+        <v>12145</v>
       </c>
       <c r="B54" s="0">
         <v>53</v>
       </c>
       <c r="C54" s="0">
-        <v>247.14781880887531</v>
+        <v>1291.8249331418674</v>
       </c>
       <c r="D54" s="0">
-        <v>11582.877974490766</v>
+        <v>11048.537755102041</v>
       </c>
       <c r="E54" s="0">
-        <v>131.98788825903912</v>
+        <v>21.141906027864511</v>
       </c>
       <c r="F54" s="0">
-        <v>115.15993054983619</v>
+        <v>1270.6830271140029</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>11666.392156862745</v>
+        <v>12385.142857142857</v>
       </c>
       <c r="B55" s="0">
         <v>54</v>
       </c>
       <c r="C55" s="0">
-        <v>258.50161711340047</v>
+        <v>1599.6961805855126</v>
       </c>
       <c r="D55" s="0">
-        <v>11528.477060727204</v>
+        <v>11003.676530612245</v>
       </c>
       <c r="E55" s="0">
-        <v>72.358456121407002</v>
+        <v>10.764433340011184</v>
       </c>
       <c r="F55" s="0">
-        <v>186.14316099199348</v>
+        <v>1588.9317472455014</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>11745.529411764706</v>
+        <v>12709.446428571429</v>
       </c>
       <c r="B56" s="0">
         <v>55</v>
       </c>
       <c r="C56" s="0">
-        <v>329.40066113428577</v>
+        <v>1951.6458140838995</v>
       </c>
       <c r="D56" s="0">
-        <v>11474.07614696364</v>
+        <v>10958.815306122449</v>
       </c>
       <c r="E56" s="0">
-        <v>38.265979642164524</v>
+        <v>5.302805743818384</v>
       </c>
       <c r="F56" s="0">
-        <v>291.13468149212122</v>
+        <v>1946.343008340081</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>11926.803921568628</v>
+        <v>13128.410714285714</v>
       </c>
       <c r="B57" s="0">
         <v>56</v>
       </c>
       <c r="C57" s="0">
-        <v>460.11856210561984</v>
+        <v>2338.026233168413</v>
       </c>
       <c r="D57" s="0">
-        <v>11419.675233200076</v>
+        <v>10913.954081632653</v>
       </c>
       <c r="E57" s="0">
-        <v>19.52111918153517</v>
+        <v>2.5274802703413579</v>
       </c>
       <c r="F57" s="0">
-        <v>440.5974429240847</v>
+        <v>2335.4987528980714</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>12129.411764705883</v>
+        <v>13578.875</v>
       </c>
       <c r="B58" s="0">
         <v>57</v>
       </c>
       <c r="C58" s="0">
-        <v>654.80175649261037</v>
+        <v>2746.4416315643825</v>
       </c>
       <c r="D58" s="0">
-        <v>11365.274319436512</v>
+        <v>10869.092857142858</v>
       </c>
       <c r="E58" s="0">
-        <v>9.6064941453425217</v>
+        <v>1.1655672631282106</v>
       </c>
       <c r="F58" s="0">
-        <v>645.19526234726789</v>
+        <v>2745.2760643012543</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>12369.666666666666</v>
+        <v>14044.714285714286</v>
       </c>
       <c r="B59" s="0">
         <v>58</v>
       </c>
       <c r="C59" s="0">
-        <v>918.7609723996128</v>
+        <v>3161.6222157674079</v>
       </c>
       <c r="D59" s="0">
-        <v>11310.873405672948</v>
+        <v>10824.231632653062</v>
       </c>
       <c r="E59" s="0">
-        <v>4.56030053337774</v>
+        <v>0.52006115809866338</v>
       </c>
       <c r="F59" s="0">
-        <v>914.2006718662351</v>
+        <v>3161.1021546093093</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>12706.803921568628</v>
+        <v>14481.053571428571</v>
       </c>
       <c r="B60" s="0">
         <v>59</v>
       </c>
       <c r="C60" s="0">
-        <v>1255.4980461131511</v>
+        <v>3565.8617891074668</v>
       </c>
       <c r="D60" s="0">
-        <v>11256.472491909386</v>
+        <v>10779.370408163266</v>
       </c>
       <c r="E60" s="0">
-        <v>2.0882877422699599</v>
+        <v>0.22451171492924141</v>
       </c>
       <c r="F60" s="0">
-        <v>1253.409758370881</v>
+        <v>3565.6372773925377</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>13137.568627450981</v>
+        <v>14902.892857142857</v>
       </c>
       <c r="B61" s="0">
         <v>60</v>
       </c>
       <c r="C61" s="0">
-        <v>1663.7445313707183</v>
+        <v>3939.9639895763712</v>
       </c>
       <c r="D61" s="0">
-        <v>11202.07157814582</v>
+        <v>10734.50918367347</v>
       </c>
       <c r="E61" s="0">
-        <v>0.92247699986847864</v>
+        <v>0.093775870977024486</v>
       </c>
       <c r="F61" s="0">
-        <v>1662.8220543708499</v>
+        <v>3939.8702137053942</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>13593.254901960785</v>
+        <v>15169.303571428571</v>
       </c>
       <c r="B62" s="0">
         <v>61</v>
       </c>
       <c r="C62" s="0">
-        <v>2134.9102420564104</v>
+        <v>4264.5837982059411</v>
       </c>
       <c r="D62" s="0">
-        <v>11147.670664382258</v>
+        <v>10689.647959183674</v>
       </c>
       <c r="E62" s="0">
-        <v>0.39308736701535851</v>
+        <v>0.037897513519692096</v>
       </c>
       <c r="F62" s="0">
-        <v>2134.5171546893953</v>
+        <v>4264.5459006924211</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>14053.764705882353</v>
+        <v>15399.5</v>
       </c>
       <c r="B63" s="0">
         <v>62</v>
       </c>
       <c r="C63" s="0">
-        <v>2651.4360641779667</v>
+        <v>4521.7986252764731</v>
       </c>
       <c r="D63" s="0">
-        <v>11093.269750618694</v>
+        <v>10644.786734693878</v>
       </c>
       <c r="E63" s="0">
-        <v>0.16158124848337985</v>
+        <v>0.014818281386374428</v>
       </c>
       <c r="F63" s="0">
-        <v>2651.2744829294834</v>
+        <v>4521.7838069950867</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>14482.117647058823</v>
+        <v>15524.964285714286</v>
       </c>
       <c r="B64" s="0">
         <v>63</v>
       </c>
       <c r="C64" s="0">
-        <v>3186.5419178455836</v>
+        <v>4696.70666662236</v>
       </c>
       <c r="D64" s="0">
-        <v>11038.86883685513</v>
+        <v>10599.925510204082</v>
       </c>
       <c r="E64" s="0">
-        <v>0.064070950198242688</v>
+        <v>0.0056059919401210394</v>
       </c>
       <c r="F64" s="0">
-        <v>3186.4778468953855</v>
+        <v>4696.7010606304202</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>14905.901960784313</v>
+        <v>15488.017857142857</v>
       </c>
       <c r="B65" s="0">
         <v>64</v>
       </c>
       <c r="C65" s="0">
-        <v>3705.7076687842441</v>
+        <v>4778.8384921531051</v>
       </c>
       <c r="D65" s="0">
-        <v>10984.467923091566</v>
+        <v>10555.064285714287</v>
       </c>
       <c r="E65" s="0">
-        <v>0.024507539021214733</v>
+        <v>0.0020519870301813799</v>
       </c>
       <c r="F65" s="0">
-        <v>3705.6831612452229</v>
+        <v>4778.8364401660747</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>15185</v>
+        <v>15303.839285714286</v>
       </c>
       <c r="B66" s="0">
         <v>65</v>
       </c>
       <c r="C66" s="0">
-        <v>4169.9205024577204</v>
+        <v>4760.9312573719699</v>
       </c>
       <c r="D66" s="0">
-        <v>10930.067009328002</v>
+        <v>10510.203061224489</v>
       </c>
       <c r="E66" s="0">
-        <v>0.0090428759542556091</v>
+        <v>0.00072671523452414951</v>
       </c>
       <c r="F66" s="0">
-        <v>4169.9114595817664</v>
+        <v>4760.9305306567358</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>15393.764705882353</v>
+        <v>14991.875</v>
       </c>
       <c r="B67" s="0">
         <v>66</v>
       </c>
       <c r="C67" s="0">
-        <v>4540.3241530354644</v>
+        <v>4636.7717479891598</v>
       </c>
       <c r="D67" s="0">
-        <v>10875.66609556444</v>
+        <v>10465.341836734693</v>
       </c>
       <c r="E67" s="0">
-        <v>0.0032187094622257791</v>
+        <v>0.00024901266062588061</v>
       </c>
       <c r="F67" s="0">
-        <v>4540.3209343260023</v>
+        <v>4636.7714989764991</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>15512.431372549019</v>
+        <v>14630.25</v>
       </c>
       <c r="B68" s="0">
         <v>67</v>
       </c>
       <c r="C68" s="0">
-        <v>4783.519405939157</v>
+        <v>4414.0647684903824</v>
       </c>
       <c r="D68" s="0">
-        <v>10821.265181800876</v>
+        <v>10420.480612244897</v>
       </c>
       <c r="E68" s="0">
-        <v>0.0011051603942610045</v>
+        <v>8.2555517360758697e-05</v>
       </c>
       <c r="F68" s="0">
-        <v>4783.5183007787628</v>
+        <v>4414.0646859348653</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>15445.686274509804</v>
+        <v>14204.857142857143</v>
       </c>
       <c r="B69" s="0">
         <v>68</v>
       </c>
       <c r="C69" s="0">
-        <v>4876.514602829011</v>
+        <v>4107.3417918353498</v>
       </c>
       <c r="D69" s="0">
-        <v>10766.864268037312</v>
+        <v>10375.619387755101</v>
       </c>
       <c r="E69" s="0">
-        <v>0.00036604727762298985</v>
+        <v>2.6481238268536153e-05</v>
       </c>
       <c r="F69" s="0">
-        <v>4876.5142367817334</v>
+        <v>4107.3417653541119</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>15239.549019607843</v>
+        <v>13771.928571428571</v>
       </c>
       <c r="B70" s="0">
         <v>69</v>
       </c>
       <c r="C70" s="0">
-        <v>4810.3063152789591</v>
+        <v>3735.7872835873227</v>
       </c>
       <c r="D70" s="0">
-        <v>10712.463354273748</v>
+        <v>10330.758163265305</v>
       </c>
       <c r="E70" s="0">
-        <v>0.00011695462007626211</v>
+        <v>8.2186026773597661e-06</v>
       </c>
       <c r="F70" s="0">
-        <v>4810.3061983243388</v>
+        <v>3735.7872753687202</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>14907.980392156862</v>
+        <v>13349.428571428571</v>
       </c>
       <c r="B71" s="0">
         <v>70</v>
       </c>
       <c r="C71" s="0">
-        <v>4591.3153216636447</v>
+        <v>3321.257782991458</v>
       </c>
       <c r="D71" s="0">
-        <v>10658.062440510184</v>
+        <v>10285.89693877551</v>
       </c>
       <c r="E71" s="0">
-        <v>3.6046733552150907e-05</v>
+        <v>2.4678865575887357e-06</v>
       </c>
       <c r="F71" s="0">
-        <v>4591.3152856169108</v>
+        <v>3321.2577805235715</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>14538.666666666666</v>
+        <v>12946.660714285714</v>
       </c>
       <c r="B72" s="0">
         <v>71</v>
       </c>
       <c r="C72" s="0">
-        <v>4240.3595362416963</v>
+        <v>2886.1718090958975</v>
       </c>
       <c r="D72" s="0">
-        <v>10603.66152674662</v>
+        <v>10241.035714285714</v>
       </c>
       <c r="E72" s="0">
-        <v>1.0717235719764706e-05</v>
+        <v>7.1700124591447788e-07</v>
       </c>
       <c r="F72" s="0">
-        <v>4240.3595255244609</v>
+        <v>2886.1718083788965</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>14094.117647058823</v>
+        <v>12604.625</v>
       </c>
       <c r="B73" s="0">
         <v>72</v>
       </c>
       <c r="C73" s="0">
-        <v>3789.3909498774074</v>
+        <v>2451.5509576296199</v>
       </c>
       <c r="D73" s="0">
-        <v>10549.260612983056</v>
+        <v>10196.174489795918</v>
       </c>
       <c r="E73" s="0">
-        <v>3.073746038779974e-06</v>
+        <v>2.0154969209816818e-07</v>
       </c>
       <c r="F73" s="0">
-        <v>3789.3909468036613</v>
+        <v>2451.5509574280704</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>13646.431372549019</v>
+        <v>12228.785714285714</v>
       </c>
       <c r="B74" s="0">
         <v>73</v>
       </c>
       <c r="C74" s="0">
-        <v>3276.7047829258845</v>
+        <v>2035.4424072133875</v>
       </c>
       <c r="D74" s="0">
-        <v>10494.859699219493</v>
+        <v>10151.313265306122</v>
       </c>
       <c r="E74" s="0">
-        <v>8.5039659750891082e-07</v>
+        <v>5.4816572685354385e-08</v>
       </c>
       <c r="F74" s="0">
-        <v>3276.7047820754879</v>
+        <v>2035.4424071585709</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>13227.450980392157</v>
+        <v>11896.464285714286</v>
       </c>
       <c r="B75" s="0">
         <v>74</v>
       </c>
       <c r="C75" s="0">
-        <v>2741.6144836686408</v>
+        <v>1651.8699826179484</v>
       </c>
       <c r="D75" s="0">
-        <v>10440.458785455929</v>
+        <v>10106.452040816326</v>
       </c>
       <c r="E75" s="0">
-        <v>2.2695689348658093e-07</v>
+        <v>1.4424777693747665e-08</v>
       </c>
       <c r="F75" s="0">
-        <v>2741.6144834416841</v>
+        <v>1651.8699826035236</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>12820.960784313726</v>
+        <v>11536.267857142857</v>
       </c>
       <c r="B76" s="0">
         <v>75</v>
       </c>
       <c r="C76" s="0">
-        <v>2219.6097585325647</v>
+        <v>1310.3643023710281</v>
       </c>
       <c r="D76" s="0">
-        <v>10386.057871692366</v>
+        <v>10061.59081632653</v>
       </c>
       <c r="E76" s="0">
-        <v>5.8429689098520531e-08</v>
+        <v>3.6726021983499159e-09</v>
       </c>
       <c r="F76" s="0">
-        <v>2219.6097584741351</v>
+        <v>1310.3643023673555</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>12488.156862745098</v>
+        <v>11238.714285714286</v>
       </c>
       <c r="B77" s="0">
         <v>76</v>
       </c>
       <c r="C77" s="0">
-        <v>1738.7936052869845</v>
+        <v>1016.0320188938795</v>
       </c>
       <c r="D77" s="0">
-        <v>10331.656957928803</v>
+        <v>10016.729591836734</v>
       </c>
       <c r="E77" s="0">
-        <v>1.4510825021779092e-08</v>
+        <v>9.0470327340235245e-10</v>
       </c>
       <c r="F77" s="0">
-        <v>1738.7936052724738</v>
+        <v>1016.0320188929747</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>12131.254901960785</v>
+        <v>10982.482142857143</v>
       </c>
       <c r="B78" s="0">
         <v>77</v>
       </c>
       <c r="C78" s="0">
-        <v>1318.0157868636904</v>
+        <v>770.05524730959951</v>
       </c>
       <c r="D78" s="0">
-        <v>10277.256044165239</v>
+        <v>9971.8683673469386</v>
       </c>
       <c r="E78" s="0">
-        <v>3.4763137613328264e-09</v>
+        <v>2.1562839202909208e-10</v>
       </c>
       <c r="F78" s="0">
-        <v>1318.0157868602141</v>
+        <v>770.05524730938384</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>11803.392156862745</v>
+        <v>10811.732142857143</v>
       </c>
       <c r="B79" s="0">
         <v>78</v>
       </c>
       <c r="C79" s="0">
-        <v>966.70587735674371</v>
+        <v>570.47356411062583</v>
       </c>
       <c r="D79" s="0">
-        <v>10222.855130401676</v>
+        <v>9927.0071428571428</v>
       </c>
       <c r="E79" s="0">
-        <v>8.0336732275572289e-10</v>
+        <v>4.9724822065817594e-11</v>
       </c>
       <c r="F79" s="0">
-        <v>966.7058773559404</v>
+        <v>570.47356411057615</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>11449.960784313726</v>
+        <v>10503.625</v>
       </c>
       <c r="B80" s="0">
         <v>79</v>
       </c>
       <c r="C80" s="0">
-        <v>686.07133595606479</v>
+        <v>413.09345332010241</v>
       </c>
       <c r="D80" s="0">
-        <v>10168.454216638111</v>
+        <v>9882.1459183673469</v>
       </c>
       <c r="E80" s="0">
-        <v>1.7909262018468225e-10</v>
+        <v>1.109450785371529e-11</v>
       </c>
       <c r="F80" s="0">
-        <v>686.07133595588573</v>
+        <v>413.09345332009133</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>11149.372549019608</v>
+        <v>10311.785714285714</v>
       </c>
       <c r="B81" s="0">
         <v>80</v>
       </c>
       <c r="C81" s="0">
-        <v>471.13499044207731</v>
+        <v>292.38847485728121</v>
       </c>
       <c r="D81" s="0">
-        <v>10114.053302874549</v>
+        <v>9837.284693877551</v>
       </c>
       <c r="E81" s="0">
-        <v>3.8513195190906862e-11</v>
+        <v>2.3950266866559182e-12</v>
       </c>
       <c r="F81" s="0">
-        <v>471.13499044203877</v>
+        <v>292.38847485727882</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>10896.274509803921</v>
+        <v>10380.964285714286</v>
       </c>
       <c r="B82" s="0">
         <v>81</v>
       </c>
       <c r="C82" s="0">
-        <v>313.05641943381949</v>
+        <v>202.28856642006855</v>
       </c>
       <c r="D82" s="0">
-        <v>10059.652389110983</v>
+        <v>9792.4234693877552</v>
       </c>
       <c r="E82" s="0">
-        <v>7.9893186609390651e-12</v>
+        <v>5.0024203533347702e-13</v>
       </c>
       <c r="F82" s="0">
-        <v>313.05641943381147</v>
+        <v>202.28856642006804</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>10747.607843137255</v>
+        <v>10539.678571428571</v>
       </c>
       <c r="B83" s="0">
         <v>82</v>
       </c>
       <c r="C83" s="0">
-        <v>201.2801913618363</v>
+        <v>136.79857469126148</v>
       </c>
       <c r="D83" s="0">
-        <v>10005.251475347421</v>
+        <v>9747.5622448979593</v>
       </c>
       <c r="E83" s="0">
-        <v>1.5987415768344832e-12</v>
+        <v>1.0109217005326202e-13</v>
       </c>
       <c r="F83" s="0">
-        <v>201.28019136183471</v>
+        <v>136.79857469126136</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>10436.882352941177</v>
+        <v>10159.25</v>
       </c>
       <c r="B84" s="0">
         <v>83</v>
       </c>
       <c r="C84" s="0">
-        <v>125.22199790353994</v>
+        <v>90.42550803803411</v>
       </c>
       <c r="D84" s="0">
-        <v>9950.8505615838567</v>
+        <v>9702.7010204081635</v>
       </c>
       <c r="E84" s="0">
-        <v>3.0861364760140985e-13</v>
+        <v>1.9766162734879044e-14</v>
       </c>
       <c r="F84" s="0">
-        <v>125.22199790353963</v>
+        <v>90.425508038034096</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>10240.627450980392</v>
+        <v>9768.3392857142862</v>
       </c>
       <c r="B85" s="0">
         <v>84</v>
       </c>
       <c r="C85" s="0">
-        <v>75.380912370554327</v>
+        <v>58.425103649051614</v>
       </c>
       <c r="D85" s="0">
-        <v>9896.4496478202927</v>
+        <v>9657.8397959183676</v>
       </c>
       <c r="E85" s="0">
-        <v>5.7467237216758282e-14</v>
+        <v>3.7393380152479154e-15</v>
       </c>
       <c r="F85" s="0">
-        <v>75.38091237055427</v>
+        <v>58.425103649051607</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>10336.35294117647</v>
+        <v>9677.6071428571431</v>
       </c>
       <c r="B86" s="0">
         <v>85</v>
       </c>
       <c r="C86" s="0">
-        <v>43.907966039111649</v>
+        <v>36.898369429392339</v>
       </c>
       <c r="D86" s="0">
-        <v>9842.0487340567288</v>
+        <v>9612.9785714285717</v>
       </c>
       <c r="E86" s="0">
-        <v>1.0322712744353925e-14</v>
+        <v>6.8443875657623447e-16</v>
       </c>
       <c r="F86" s="0">
-        <v>43.907966039111642</v>
+        <v>36.898369429392339</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>10536.823529411764</v>
+        <v>9578.875</v>
       </c>
       <c r="B87" s="0">
         <v>86</v>
       </c>
       <c r="C87" s="0">
-        <v>24.747219970961066</v>
+        <v>22.777917051130981</v>
       </c>
       <c r="D87" s="0">
-        <v>9787.6478202931648</v>
+        <v>9568.1173469387759</v>
       </c>
       <c r="E87" s="0">
-        <v>1.7886925510658156e-15</v>
+        <v>1.2121098301172968e-16</v>
       </c>
       <c r="F87" s="0">
-        <v>24.747219970961062</v>
+        <v>22.777917051130981</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>10133.196078431372</v>
+        <v>9442</v>
       </c>
       <c r="B88" s="0">
         <v>87</v>
       </c>
       <c r="C88" s="0">
-        <v>13.496174557461249</v>
+        <v>13.7442165303223</v>
       </c>
       <c r="D88" s="0">
-        <v>9733.2469065296027</v>
+        <v>9523.25612244898</v>
       </c>
       <c r="E88" s="0">
-        <v>2.9898258141501881e-16</v>
+        <v>2.076906109299228e-17</v>
       </c>
       <c r="F88" s="0">
-        <v>13.496174557461249</v>
+        <v>13.7442165303223</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>9730.7254901960787</v>
+        <v>9321.2142857142862</v>
       </c>
       <c r="B89" s="0">
         <v>88</v>
       </c>
       <c r="C89" s="0">
-        <v>7.1219041394995628</v>
+        <v>8.1063456735174917</v>
       </c>
       <c r="D89" s="0">
-        <v>9678.8459927660388</v>
+        <v>9478.3948979591842</v>
       </c>
       <c r="E89" s="0">
-        <v>4.8208587704863221e-17</v>
+        <v>3.4431763377917854e-18</v>
       </c>
       <c r="F89" s="0">
-        <v>7.1219041394995628</v>
+        <v>8.1063456735174917</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>9639.4901960784318</v>
+        <v>9243.7678571428569</v>
       </c>
       <c r="B90" s="0">
         <v>89</v>
       </c>
       <c r="C90" s="0">
-        <v>3.6364927820676791</v>
+        <v>4.6733617411300861</v>
       </c>
       <c r="D90" s="0">
-        <v>9624.4450790024748</v>
+        <v>9433.5336734693883</v>
       </c>
       <c r="E90" s="0">
-        <v>7.4984459086575993e-18</v>
+        <v>5.5229254007310548e-19</v>
       </c>
       <c r="F90" s="0">
-        <v>3.6364927820676791</v>
+        <v>4.6733617411300861</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>9546.4705882352937</v>
+        <v>9170.625</v>
       </c>
       <c r="B91" s="0">
         <v>90</v>
       </c>
       <c r="C91" s="0">
-        <v>1.7966790550947564</v>
+        <v>2.6334969983897802</v>
       </c>
       <c r="D91" s="0">
-        <v>9570.0441652389109</v>
+        <v>9388.6724489795924</v>
       </c>
       <c r="E91" s="0">
-        <v>1.1250878890678426e-18</v>
+        <v>8.5712981073449637e-20</v>
       </c>
       <c r="F91" s="0">
-        <v>1.7966790550947564</v>
+        <v>2.6334969983897802</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>9409.0980392156871</v>
+        <v>9065.6964285714294</v>
       </c>
       <c r="B92" s="0">
         <v>91</v>
       </c>
       <c r="C92" s="0">
-        <v>0.85893331764845204</v>
+        <v>1.4505590256599767</v>
       </c>
       <c r="D92" s="0">
-        <v>9515.6432514753469</v>
+        <v>9343.8112244897966</v>
       </c>
       <c r="E92" s="0">
-        <v>1.628433279415389e-19</v>
+        <v>1.2870384858087048e-20</v>
       </c>
       <c r="F92" s="0">
-        <v>0.85893331764845204</v>
+        <v>1.4505590256599767</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>9285.5686274509808</v>
+        <v>9037.0714285714294</v>
       </c>
       <c r="B93" s="0">
         <v>92</v>
       </c>
       <c r="C93" s="0">
-        <v>0.39732835784603004</v>
+        <v>0.78097500175668122</v>
       </c>
       <c r="D93" s="0">
-        <v>9461.2423377117848</v>
+        <v>9298.9500000000007</v>
       </c>
       <c r="E93" s="0">
-        <v>2.273640629204966e-20</v>
+        <v>1.8698379850141762e-21</v>
       </c>
       <c r="F93" s="0">
-        <v>0.39732835784603004</v>
+        <v>0.78097500175668122</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>9213.254901960785</v>
+        <v>8962.2857142857138</v>
       </c>
       <c r="B94" s="0">
         <v>93</v>
       </c>
       <c r="C94" s="0">
-        <v>0.17784466614849465</v>
+        <v>0.41099639163634638</v>
       </c>
       <c r="D94" s="0">
-        <v>9406.841423948219</v>
+        <v>9254.0887755102049</v>
       </c>
       <c r="E94" s="0">
-        <v>3.0622596091992298e-21</v>
+        <v>2.6283544566487598e-22</v>
       </c>
       <c r="F94" s="0">
-        <v>0.17784466614849465</v>
+        <v>0.41099639163634638</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>9149.0980392156871</v>
+        <v>8883.8571428571431</v>
       </c>
       <c r="B95" s="0">
         <v>94</v>
       </c>
       <c r="C95" s="0">
-        <v>0.077025281774058638</v>
+        <v>0.21141608890667105</v>
       </c>
       <c r="D95" s="0">
-        <v>9352.4405101846569</v>
+        <v>9209.227551020409</v>
       </c>
       <c r="E95" s="0">
-        <v>3.9786022464515047e-22</v>
+        <v>3.5746324972139574e-23</v>
       </c>
       <c r="F95" s="0">
-        <v>0.077025281774058638</v>
+        <v>0.21141608890667105</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>9048.5294117647063</v>
+        <v>8887.5892857142862</v>
       </c>
       <c r="B96" s="0">
         <v>95</v>
       </c>
       <c r="C96" s="0">
-        <v>0.032279508692816206</v>
+        <v>0.10630096542612887</v>
       </c>
       <c r="D96" s="0">
-        <v>9298.0395964210911</v>
+        <v>9164.3663265306132</v>
       </c>
       <c r="E96" s="0">
-        <v>4.9864029815467655e-23</v>
+        <v>4.7037732287632914e-24</v>
       </c>
       <c r="F96" s="0">
-        <v>0.032279508692816206</v>
+        <v>0.10630096542612887</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>8998.9607843137255</v>
+        <v>8839.5892857142862</v>
       </c>
       <c r="B97" s="0">
         <v>96</v>
       </c>
       <c r="C97" s="0">
-        <v>0.013089459244364643</v>
+        <v>0.052243893132007092</v>
       </c>
       <c r="D97" s="0">
-        <v>9243.638682657529</v>
+        <v>9119.5051020408173</v>
       </c>
       <c r="E97" s="0">
-        <v>6.0285456831865786e-24</v>
+        <v>5.9886490570050541e-25</v>
       </c>
       <c r="F97" s="0">
-        <v>0.013089459244364643</v>
+        <v>0.052243893132007092</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>8928.1372549019616</v>
+        <v>8803.9285714285706</v>
       </c>
       <c r="B98" s="0">
         <v>97</v>
       </c>
       <c r="C98" s="0">
-        <v>0.0051359130605714313</v>
+        <v>0.025097646913819847</v>
       </c>
       <c r="D98" s="0">
-        <v>9189.237768893965</v>
+        <v>9074.6438775510214</v>
       </c>
       <c r="E98" s="0">
-        <v>7.0308214917937753e-25</v>
+        <v>7.3769843467466219e-26</v>
       </c>
       <c r="F98" s="0">
-        <v>0.0051359130605714313</v>
+        <v>0.025097646913819847</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>8843.2941176470595</v>
+        <v>8844.2678571428569</v>
       </c>
       <c r="B99" s="0">
         <v>98</v>
       </c>
       <c r="C99" s="0">
-        <v>0.0019499110068802031</v>
+        <v>0.011785001088977945</v>
       </c>
       <c r="D99" s="0">
-        <v>9134.8368551304011</v>
+        <v>9029.7826530612256</v>
       </c>
       <c r="E99" s="0">
-        <v>7.9098440234175545e-26</v>
+        <v>8.7921759582785779e-27</v>
       </c>
       <c r="F99" s="0">
-        <v>0.0019499110068802031</v>
+        <v>0.011785001088977945</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>8860</v>
+        <v>8835.7142857142862</v>
       </c>
       <c r="B100" s="0">
         <v>99</v>
       </c>
       <c r="C100" s="0">
-        <v>0.00071632991302128068</v>
+        <v>0.005409104826218457</v>
       </c>
       <c r="D100" s="0">
-        <v>9080.435941366839</v>
+        <v>8984.9214285714279</v>
       </c>
       <c r="E100" s="0">
-        <v>8.5841658585321118e-27</v>
+        <v>1.0138679417263562e-27</v>
       </c>
       <c r="F100" s="0">
-        <v>0.00071632991302128068</v>
+        <v>0.005409104826218457</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>8817.7058823529405</v>
+        <v>8813.4464285714294</v>
       </c>
       <c r="B101" s="0">
         <v>100</v>
       </c>
       <c r="C101" s="0">
-        <v>0.0002546317486207373</v>
+        <v>0.0024267236245177379</v>
       </c>
       <c r="D101" s="0">
-        <v>9026.0350276032732</v>
+        <v>8940.060204081632</v>
       </c>
       <c r="E101" s="0">
-        <v>8.9866248756532503e-28</v>
+        <v>1.1311857400441203e-28</v>
       </c>
       <c r="F101" s="0">
-        <v>0.0002546317486207373</v>
+        <v>0.0024267236245177379</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>8779.6862745098042</v>
+        <v>8842.4285714285706</v>
       </c>
       <c r="B102" s="0">
         <v>101</v>
       </c>
       <c r="C102" s="0">
-        <v>8.7581662902498709e-05</v>
+        <v>0.0010641782717478721</v>
       </c>
       <c r="D102" s="0">
-        <v>8971.6341138397111</v>
+        <v>8895.1989795918362</v>
       </c>
       <c r="E102" s="0">
-        <v>9.0753515969755009e-29</v>
+        <v>1.2211076813596594e-29</v>
       </c>
       <c r="F102" s="0">
-        <v>8.7581662902498709e-05</v>
+        <v>0.0010641782717478721</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>8822.0784313725489</v>
+        <v>8745.6785714285706</v>
       </c>
       <c r="B103" s="0">
         <v>102</v>
       </c>
       <c r="C103" s="0">
-        <v>2.9148418091707522e-05</v>
+        <v>0.00045614992277103676</v>
       </c>
       <c r="D103" s="0">
-        <v>8917.2332000761453</v>
+        <v>8850.3377551020421</v>
       </c>
       <c r="E103" s="0">
-        <v>8.8409439664339455e-30</v>
+        <v>1.275385618385994e-30</v>
       </c>
       <c r="F103" s="0">
-        <v>2.9148418091707522e-05</v>
+        <v>0.00045614992277103676</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>8838.4117647058829</v>
+        <v>8729.4285714285706</v>
       </c>
       <c r="B104" s="0">
         <v>103</v>
       </c>
       <c r="C104" s="0">
-        <v>9.3868086016903927e-06</v>
+        <v>0.00019111728761008021</v>
       </c>
       <c r="D104" s="0">
-        <v>8862.8322863125832</v>
+        <v>8805.4765306122445</v>
       </c>
       <c r="E104" s="0">
-        <v>8.308108302591502e-31</v>
+        <v>1.288832795350141e-31</v>
       </c>
       <c r="F104" s="0">
-        <v>9.3868086016903927e-06</v>
+        <v>0.00019111728761008021</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>8808.4313725490192</v>
+        <v>8749.9464285714294</v>
       </c>
       <c r="B105" s="0">
         <v>104</v>
       </c>
       <c r="C105" s="0">
-        <v>2.924974633497366e-06</v>
+        <v>7.8269307215425197e-05</v>
       </c>
       <c r="D105" s="0">
-        <v>8808.4313725490192</v>
+        <v>8760.6153061224486</v>
       </c>
       <c r="E105" s="0">
-        <v>7.5313701570787709e-32</v>
+        <v>1.2601410300038166e-32</v>
       </c>
       <c r="F105" s="0">
-        <v>2.924974633497366e-06</v>
+        <v>7.8269307215425197e-05</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0">
+        <v>8668.7678571428569</v>
+      </c>
+      <c r="B106" s="0">
+        <v>105</v>
+      </c>
+      <c r="C106" s="0">
+        <v>3.1331569850689208e-05</v>
+      </c>
+      <c r="D106" s="0">
+        <v>8715.7540816326527</v>
+      </c>
+      <c r="E106" s="0">
+        <v>1.1920905273927849e-33</v>
+      </c>
+      <c r="F106" s="0">
+        <v>3.1331569850689208e-05</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0">
+        <v>8670.8928571428569</v>
+      </c>
+      <c r="B107" s="0">
+        <v>106</v>
+      </c>
+      <c r="C107" s="0">
+        <v>1.2259477767163938e-05</v>
+      </c>
+      <c r="D107" s="0">
+        <v>8670.8928571428569</v>
+      </c>
+      <c r="E107" s="0">
+        <v>1.091105719729546e-34</v>
+      </c>
+      <c r="F107" s="0">
+        <v>1.2259477767163938e-05</v>
       </c>
     </row>
   </sheetData>
@@ -2405,7 +2445,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F105"/>
+  <dimension ref="A1:F107"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="true"/>
@@ -2438,2082 +2478,2122 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>14342.294117647059</v>
+        <v>14793.982142857143</v>
       </c>
       <c r="B2" s="0">
         <v>1</v>
       </c>
       <c r="C2" s="0">
-        <v>0.019217668360457421</v>
+        <v>0.00019534614074895326</v>
       </c>
       <c r="D2" s="0">
-        <v>14342.294117647059</v>
+        <v>14793.982142857143</v>
       </c>
       <c r="E2" s="0">
-        <v>0.019217668360457421</v>
+        <v>0.00019534614074895326</v>
       </c>
       <c r="F2" s="0">
-        <v>4.4820936657449842e-20</v>
+        <v>8.4600824267031213e-25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>14189.039215686274</v>
+        <v>14533.767857142857</v>
       </c>
       <c r="B3" s="0">
         <v>2</v>
       </c>
       <c r="C3" s="0">
-        <v>0.044308100275728152</v>
+        <v>0.00053286558043003519</v>
       </c>
       <c r="D3" s="0">
-        <v>14290.004949552636</v>
+        <v>14738.683673469388</v>
       </c>
       <c r="E3" s="0">
-        <v>0.044308100275728152</v>
+        <v>0.00053286558043003519</v>
       </c>
       <c r="F3" s="0">
-        <v>2.4084712343319177e-19</v>
+        <v>5.7132836438929452e-24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>13727.117647058823</v>
+        <v>14186.160714285714</v>
       </c>
       <c r="B4" s="0">
         <v>3</v>
       </c>
       <c r="C4" s="0">
-        <v>0.099435508148867785</v>
+        <v>0.0014121434063158679</v>
       </c>
       <c r="D4" s="0">
-        <v>14237.715781458215</v>
+        <v>14683.385204081633</v>
       </c>
       <c r="E4" s="0">
-        <v>0.099435508148867785</v>
+        <v>0.0014121434063158679</v>
       </c>
       <c r="F4" s="0">
-        <v>1.2597313324009611e-18</v>
+        <v>3.7483943806447909e-23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>13492.960784313726</v>
+        <v>14024.410714285714</v>
       </c>
       <c r="B5" s="0">
         <v>4</v>
       </c>
       <c r="C5" s="0">
-        <v>0.21720799020777198</v>
+        <v>0.0036357016516483363</v>
       </c>
       <c r="D5" s="0">
-        <v>14185.426613363792</v>
+        <v>14628.086734693878</v>
       </c>
       <c r="E5" s="0">
-        <v>0.21720799020777198</v>
+        <v>0.0036357016516483363</v>
       </c>
       <c r="F5" s="0">
-        <v>6.4134295907832935e-18</v>
+        <v>2.3892031110118013e-22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>13457.862745098038</v>
+        <v>14218.178571428571</v>
       </c>
       <c r="B6" s="0">
         <v>5</v>
       </c>
       <c r="C6" s="0">
-        <v>0.46183413469443435</v>
+        <v>0.0090938120391226077</v>
       </c>
       <c r="D6" s="0">
-        <v>14133.137445269371</v>
+        <v>14572.788265306122</v>
       </c>
       <c r="E6" s="0">
-        <v>0.4618341346944343</v>
+        <v>0.0090938120391226077</v>
       </c>
       <c r="F6" s="0">
-        <v>3.1781812650732789e-17</v>
+        <v>1.4794802296869362e-21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>13508.823529411764</v>
+        <v>14063.785714285714</v>
       </c>
       <c r="B7" s="0">
         <v>6</v>
       </c>
       <c r="C7" s="0">
-        <v>0.95581137107974401</v>
+        <v>0.022097951218502651</v>
       </c>
       <c r="D7" s="0">
-        <v>14080.848277174948</v>
+        <v>14517.489795918367</v>
       </c>
       <c r="E7" s="0">
-        <v>0.9558113710797439</v>
+        <v>0.022097951218502651</v>
       </c>
       <c r="F7" s="0">
-        <v>1.5330027267523726e-16</v>
+        <v>8.900482724379301e-21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>13472.039215686274</v>
+        <v>13639.553571428571</v>
       </c>
       <c r="B8" s="0">
         <v>7</v>
       </c>
       <c r="C8" s="0">
-        <v>1.9254590605048896</v>
+        <v>0.05216825963238543</v>
       </c>
       <c r="D8" s="0">
-        <v>14028.559109080526</v>
+        <v>14462.191326530612</v>
       </c>
       <c r="E8" s="0">
-        <v>1.9254590605048889</v>
+        <v>0.05216825963238543</v>
       </c>
       <c r="F8" s="0">
-        <v>7.1975240311347511e-16</v>
+        <v>5.2019510132849404e-20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>13450.901960784313</v>
+        <v>13423.660714285714</v>
       </c>
       <c r="B9" s="0">
         <v>8</v>
       </c>
       <c r="C9" s="0">
-        <v>3.7754812449345856</v>
+        <v>0.11964897644791425</v>
       </c>
       <c r="D9" s="0">
-        <v>13976.269940986103</v>
+        <v>14406.892857142857</v>
       </c>
       <c r="E9" s="0">
-        <v>3.7754812449345825</v>
+        <v>0.11964897644791425</v>
       </c>
       <c r="F9" s="0">
-        <v>3.2892679392107169e-15</v>
+        <v>2.9537059356093333e-19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>13510.235294117647</v>
+        <v>13389</v>
       </c>
       <c r="B10" s="0">
         <v>9</v>
       </c>
       <c r="C10" s="0">
-        <v>7.2058675897036988</v>
+        <v>0.26659986668554403</v>
       </c>
       <c r="D10" s="0">
-        <v>13923.980772891682</v>
+        <v>14351.594387755102</v>
       </c>
       <c r="E10" s="0">
-        <v>7.2058675897036846</v>
+        <v>0.26659986668554403</v>
       </c>
       <c r="F10" s="0">
-        <v>1.4631582905626663e-14</v>
+        <v>1.6293581391188175e-18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>13542.176470588236</v>
+        <v>13439.053571428571</v>
       </c>
       <c r="B11" s="0">
         <v>10</v>
       </c>
       <c r="C11" s="0">
-        <v>13.386781350766038</v>
+        <v>0.57711075665843159</v>
       </c>
       <c r="D11" s="0">
-        <v>13871.691604797259</v>
+        <v>14296.295918367347</v>
       </c>
       <c r="E11" s="0">
-        <v>13.386781350765974</v>
+        <v>0.57711075665843159</v>
       </c>
       <c r="F11" s="0">
-        <v>6.3351850499060089e-14</v>
+        <v>8.7320085859606097e-18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>13561.764705882353</v>
+        <v>13409.732142857143</v>
       </c>
       <c r="B12" s="0">
         <v>11</v>
       </c>
       <c r="C12" s="0">
-        <v>24.207057100632209</v>
+        <v>1.2136870313069261</v>
       </c>
       <c r="D12" s="0">
-        <v>13819.402436702838</v>
+        <v>14240.997448979591</v>
       </c>
       <c r="E12" s="0">
-        <v>24.207057100631943</v>
+        <v>1.2136870313069261</v>
       </c>
       <c r="F12" s="0">
-        <v>2.6699506235082229e-13</v>
+        <v>4.5463205634135002e-17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>13679.666666666666</v>
+        <v>13404.517857142857</v>
       </c>
       <c r="B13" s="0">
         <v>12</v>
       </c>
       <c r="C13" s="0">
-        <v>42.607274224241372</v>
+        <v>2.4797194852810525</v>
       </c>
       <c r="D13" s="0">
-        <v>13767.113268608415</v>
+        <v>14185.698979591836</v>
       </c>
       <c r="E13" s="0">
-        <v>42.607274224240278</v>
+        <v>2.479719485281052</v>
       </c>
       <c r="F13" s="0">
-        <v>1.0952747777519154e-12</v>
+        <v>2.2996103602381199e-16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>13899.960784313726</v>
+        <v>13459.410714285714</v>
       </c>
       <c r="B14" s="0">
         <v>13</v>
       </c>
       <c r="C14" s="0">
-        <v>72.996399643942723</v>
+        <v>4.9220576827873632</v>
       </c>
       <c r="D14" s="0">
-        <v>13714.824100513993</v>
+        <v>14130.400510204081</v>
       </c>
       <c r="E14" s="0">
-        <v>72.996399643938346</v>
+        <v>4.9220576827873623</v>
       </c>
       <c r="F14" s="0">
-        <v>4.3733967288335415e-12</v>
+        <v>1.130047657527149e-15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>13943.156862745098</v>
+        <v>13493.821428571429</v>
       </c>
       <c r="B15" s="0">
         <v>14</v>
       </c>
       <c r="C15" s="0">
-        <v>121.72928222232481</v>
+        <v>9.4915938086930467</v>
       </c>
       <c r="D15" s="0">
-        <v>13662.53493241957</v>
+        <v>14075.102040816328</v>
       </c>
       <c r="E15" s="0">
-        <v>121.72928222230782</v>
+        <v>9.4915938086930414</v>
       </c>
       <c r="F15" s="0">
-        <v>1.6997717104184545e-11</v>
+        <v>5.3949517292908767e-15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>13928.64705882353</v>
+        <v>13524.571428571429</v>
       </c>
       <c r="B16" s="0">
         <v>15</v>
       </c>
       <c r="C16" s="0">
-        <v>197.58984217002731</v>
+        <v>17.781970720051344</v>
       </c>
       <c r="D16" s="0">
-        <v>13610.245764325147</v>
+        <v>14019.803571428572</v>
       </c>
       <c r="E16" s="0">
-        <v>197.58984216996302</v>
+        <v>17.781970720051319</v>
       </c>
       <c r="F16" s="0">
-        <v>6.4304038699555787e-11</v>
+        <v>2.5022267819038996e-14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>14114.549019607843</v>
+        <v>13634.428571428571</v>
       </c>
       <c r="B17" s="0">
         <v>16</v>
       </c>
       <c r="C17" s="0">
-        <v>312.18361087394476</v>
+        <v>32.364502703661373</v>
       </c>
       <c r="D17" s="0">
-        <v>13557.956596230726</v>
+        <v>13964.505102040817</v>
       </c>
       <c r="E17" s="0">
-        <v>312.18361087370795</v>
+        <v>32.364502703661259</v>
       </c>
       <c r="F17" s="0">
-        <v>2.3678917022144043e-10</v>
+        <v>1.1274935706757478e-13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>14315.588235294117</v>
+        <v>13844.517857142857</v>
       </c>
       <c r="B18" s="0">
         <v>17</v>
       </c>
       <c r="C18" s="0">
-        <v>480.09979105871031</v>
+        <v>57.227699333430024</v>
       </c>
       <c r="D18" s="0">
-        <v>13505.667428136303</v>
+        <v>13909.206632653062</v>
       </c>
       <c r="E18" s="0">
-        <v>480.09979105786158</v>
+        <v>57.227699333429534</v>
       </c>
       <c r="F18" s="0">
-        <v>8.4871397463433094e-10</v>
+        <v>4.9357116644921445e-13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>14552.411764705883</v>
+        <v>13901.321428571429</v>
       </c>
       <c r="B19" s="0">
         <v>18</v>
       </c>
       <c r="C19" s="0">
-        <v>718.6689249342686</v>
+        <v>98.308696180833763</v>
       </c>
       <c r="D19" s="0">
-        <v>13453.378260041882</v>
+        <v>13853.908163265307</v>
       </c>
       <c r="E19" s="0">
-        <v>718.66892493130763</v>
+        <v>98.30869618083166</v>
       </c>
       <c r="F19" s="0">
-        <v>2.9609890603983322e-09</v>
+        <v>2.0991031921707295e-12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>14867.431372549019</v>
+        <v>13901.642857142857</v>
       </c>
       <c r="B20" s="0">
         <v>19</v>
       </c>
       <c r="C20" s="0">
-        <v>1047.1337274104746</v>
+        <v>164.06875663945689</v>
       </c>
       <c r="D20" s="0">
-        <v>13401.089091947459</v>
+        <v>13798.609693877552</v>
       </c>
       <c r="E20" s="0">
-        <v>1047.1337274004195</v>
+        <v>164.06875663944822</v>
       </c>
       <c r="F20" s="0">
-        <v>1.0055141456556989e-08</v>
+        <v>8.672935131692886e-12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>15209.764705882353</v>
+        <v>14088.571428571429</v>
       </c>
       <c r="B21" s="0">
         <v>20</v>
       </c>
       <c r="C21" s="0">
-        <v>1485.0851721920151</v>
+        <v>266.01623257921028</v>
       </c>
       <c r="D21" s="0">
-        <v>13348.799923853037</v>
+        <v>13743.311224489797</v>
       </c>
       <c r="E21" s="0">
-        <v>1485.0851721587785</v>
+        <v>266.01623257917549</v>
       </c>
       <c r="F21" s="0">
-        <v>3.323651644338786e-08</v>
+        <v>3.4813421495627906e-11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>15554.901960784313</v>
+        <v>14289.107142857143</v>
       </c>
       <c r="B22" s="0">
         <v>21</v>
       </c>
       <c r="C22" s="0">
-        <v>2050.1069023049122</v>
+        <v>419.02380017211715</v>
       </c>
       <c r="D22" s="0">
-        <v>13296.510755758614</v>
+        <v>13688.012755102041</v>
       </c>
       <c r="E22" s="0">
-        <v>2050.1069021979774</v>
+        <v>419.02380017198141</v>
       </c>
       <c r="F22" s="0">
-        <v>1.0693472198689887e-07</v>
+        <v>1.3576118478316195e-10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>15970.705882352941</v>
+        <v>14524.321428571429</v>
       </c>
       <c r="B23" s="0">
         <v>22</v>
       </c>
       <c r="C23" s="0">
-        <v>2754.720785039045</v>
+        <v>641.23548111482592</v>
       </c>
       <c r="D23" s="0">
-        <v>13244.221587664193</v>
+        <v>13632.714285714286</v>
       </c>
       <c r="E23" s="0">
-        <v>2754.7207847041582</v>
+        <v>641.2354811143116</v>
       </c>
       <c r="F23" s="0">
-        <v>3.3488671770777105e-07</v>
+        <v>5.1434299757405217e-10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>16529.352941176472</v>
+        <v>14852.321428571429</v>
       </c>
       <c r="B24" s="0">
         <v>23</v>
       </c>
       <c r="C24" s="0">
-        <v>3602.9198096977334</v>
+        <v>953.33316049223129</v>
       </c>
       <c r="D24" s="0">
-        <v>13191.93241956977</v>
+        <v>13577.415816326531</v>
       </c>
       <c r="E24" s="0">
-        <v>3602.9198086769043</v>
+        <v>953.33316049033817</v>
       </c>
       <c r="F24" s="0">
-        <v>1.0208290801321666e-06</v>
+        <v>1.8931208769532729e-09</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>17178.235294117647</v>
+        <v>15199.714285714286</v>
       </c>
       <c r="B25" s="0">
         <v>24</v>
       </c>
       <c r="C25" s="0">
-        <v>4586.7760756111029</v>
+        <v>1376.9562938271333</v>
       </c>
       <c r="D25" s="0">
-        <v>13139.643251475347</v>
+        <v>13522.117346938776</v>
       </c>
       <c r="E25" s="0">
-        <v>4586.7760725822091</v>
+        <v>1376.956293820364</v>
       </c>
       <c r="F25" s="0">
-        <v>3.0288940052589152e-06</v>
+        <v>6.7694308941993696e-09</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>18040.196078431374</v>
+        <v>15539.321428571429</v>
       </c>
       <c r="B26" s="0">
         <v>25</v>
       </c>
       <c r="C26" s="0">
-        <v>5683.768926642143</v>
+        <v>1932.163671763105</v>
       </c>
       <c r="D26" s="0">
-        <v>13087.354083380926</v>
+        <v>13466.818877551021</v>
       </c>
       <c r="E26" s="0">
-        <v>5683.7689178945002</v>
+        <v>1932.1636717395884</v>
       </c>
       <c r="F26" s="0">
-        <v>8.7476429902881659e-06</v>
+        <v>2.3516586041230902e-08</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>19169.176470588234</v>
+        <v>15972.464285714286</v>
       </c>
       <c r="B27" s="0">
         <v>26</v>
       </c>
       <c r="C27" s="0">
-        <v>6855.5329230619045</v>
+        <v>2634.0012104436391</v>
       </c>
       <c r="D27" s="0">
-        <v>13035.064915286503</v>
+        <v>13411.520408163266</v>
       </c>
       <c r="E27" s="0">
-        <v>6855.5328984710313</v>
+        <v>2634.0012103642712</v>
       </c>
       <c r="F27" s="0">
-        <v>2.4590873571149808e-05</v>
+        <v>7.9367863694943462e-08</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>20467.372549019608</v>
+        <v>16563.035714285714</v>
       </c>
       <c r="B28" s="0">
         <v>27</v>
       </c>
       <c r="C28" s="0">
-        <v>8048.6299723638649</v>
+        <v>3488.4807366082459</v>
       </c>
       <c r="D28" s="0">
-        <v>12982.775747192081</v>
+        <v>13356.22193877551</v>
       </c>
       <c r="E28" s="0">
-        <v>8048.629905076612</v>
+        <v>3488.4807363480122</v>
       </c>
       <c r="F28" s="0">
-        <v>6.7287252569845865e-05</v>
+        <v>2.602336230705091e-07</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>21872.862745098038</v>
+        <v>17265.607142857141</v>
       </c>
       <c r="B29" s="0">
         <v>28</v>
       </c>
       <c r="C29" s="0">
-        <v>9197.6872314728116</v>
+        <v>4488.538856645825</v>
       </c>
       <c r="D29" s="0">
-        <v>12930.486579097658</v>
+        <v>13300.923469387755</v>
       </c>
       <c r="E29" s="0">
-        <v>9197.6870522606132</v>
+        <v>4488.5388558168706</v>
       </c>
       <c r="F29" s="0">
-        <v>0.00017921219817151226</v>
+        <v>8.2895399065837159e-07</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>23225.078431372549</v>
+        <v>18215.142857142859</v>
       </c>
       <c r="B30" s="0">
         <v>29</v>
       </c>
       <c r="C30" s="0">
-        <v>10230.839026292568</v>
+        <v>5610.7633346403063</v>
       </c>
       <c r="D30" s="0">
-        <v>12878.197411003237</v>
+        <v>13245.625</v>
       </c>
       <c r="E30" s="0">
-        <v>10230.838561693568</v>
+        <v>5610.7633320749619</v>
       </c>
       <c r="F30" s="0">
-        <v>0.00046459899917900959</v>
+        <v>2.5653448033501637e-06</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>24330.823529411766</v>
+        <v>19444.142857142859</v>
       </c>
       <c r="B31" s="0">
         <v>30</v>
       </c>
       <c r="C31" s="0">
-        <v>11076.940241992857</v>
+        <v>6813.7659653242808</v>
       </c>
       <c r="D31" s="0">
-        <v>12825.908242908814</v>
+        <v>13190.326530612245</v>
       </c>
       <c r="E31" s="0">
-        <v>11076.939069622294</v>
+        <v>6813.7659576115293</v>
       </c>
       <c r="F31" s="0">
-        <v>0.0011723705628539803</v>
+        <v>7.7127519926507564e-06</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>25084.274509803923</v>
+        <v>20802.017857142859</v>
       </c>
       <c r="B32" s="0">
         <v>31</v>
       </c>
       <c r="C32" s="0">
-        <v>11673.587452099411</v>
+        <v>8038.9768209704025</v>
       </c>
       <c r="D32" s="0">
-        <v>12773.619074814393</v>
+        <v>13135.02806122449</v>
       </c>
       <c r="E32" s="0">
-        <v>11673.584572530524</v>
+        <v>8038.9767984424725</v>
       </c>
       <c r="F32" s="0">
-        <v>0.0028795688874313947</v>
+        <v>2.2527930010484306e-05</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>25323.882352941175</v>
+        <v>22169.214285714286</v>
       </c>
       <c r="B33" s="0">
         <v>32</v>
       </c>
       <c r="C33" s="0">
-        <v>11974.706648496558</v>
+        <v>9214.3062469346405</v>
       </c>
       <c r="D33" s="0">
-        <v>12721.32990671997</v>
+        <v>13079.729591836734</v>
       </c>
       <c r="E33" s="0">
-        <v>11974.699764098521</v>
+        <v>9214.3061830080551</v>
       </c>
       <c r="F33" s="0">
-        <v>0.0068843980362132805</v>
+        <v>6.3926585891471377e-05</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>25102.156862745098</v>
+        <v>23438</v>
       </c>
       <c r="B34" s="0">
         <v>33</v>
       </c>
       <c r="C34" s="0">
-        <v>11955.247695934097</v>
+        <v>10260.601290711811</v>
       </c>
       <c r="D34" s="0">
-        <v>12669.040738625548</v>
+        <v>13024.431122448979</v>
       </c>
       <c r="E34" s="0">
-        <v>11955.231675274095</v>
+        <v>10260.601114477675</v>
       </c>
       <c r="F34" s="0">
-        <v>0.016020660000737357</v>
+        <v>0.00017623413630977292</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>24462.980392156864</v>
+        <v>24471.857142857141</v>
       </c>
       <c r="B35" s="0">
         <v>34</v>
       </c>
       <c r="C35" s="0">
-        <v>11611.238138808299</v>
+        <v>11100.212406083072</v>
       </c>
       <c r="D35" s="0">
-        <v>12616.751570531125</v>
+        <v>12969.132653061224</v>
       </c>
       <c r="E35" s="0">
-        <v>11611.201850162022</v>
+        <v>11100.21193407779</v>
       </c>
       <c r="F35" s="0">
-        <v>0.036288646277111238</v>
+        <v>0.00047200528255095193</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>23591.980392156864</v>
+        <v>25124.017857142859</v>
       </c>
       <c r="B36" s="0">
         <v>35</v>
       </c>
       <c r="C36" s="0">
-        <v>10969.783837328254</v>
+        <v>11666.432798413249</v>
       </c>
       <c r="D36" s="0">
-        <v>12564.462402436704</v>
+        <v>12913.834183673469</v>
       </c>
       <c r="E36" s="0">
-        <v>10969.703828656</v>
+        <v>11666.43157026163</v>
       </c>
       <c r="F36" s="0">
-        <v>0.080008672254313837</v>
+        <v>0.0012281516185196877</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>22517.862745098038</v>
+        <v>25278.696428571428</v>
       </c>
       <c r="B37" s="0">
         <v>36</v>
       </c>
       <c r="C37" s="0">
-        <v>10081.347273873662</v>
+        <v>11912.234097258908</v>
       </c>
       <c r="D37" s="0">
-        <v>12512.173234342281</v>
+        <v>12858.535714285714</v>
       </c>
       <c r="E37" s="0">
-        <v>10081.17557031694</v>
+        <v>11912.230992660634</v>
       </c>
       <c r="F37" s="0">
-        <v>0.1717035567224611</v>
+        <v>0.0031045982738367728</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>21285.588235294119</v>
+        <v>24988.732142857141</v>
       </c>
       <c r="B38" s="0">
         <v>37</v>
       </c>
       <c r="C38" s="0">
-        <v>9012.4586975559032</v>
+        <v>11816.714856049926</v>
       </c>
       <c r="D38" s="0">
-        <v>12459.884066247858</v>
+        <v>12803.237244897959</v>
       </c>
       <c r="E38" s="0">
-        <v>9012.100025574855</v>
+        <v>11816.707231624176</v>
       </c>
       <c r="F38" s="0">
-        <v>0.35867198104836651</v>
+        <v>0.0076244257512865163</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>19871.843137254902</v>
+        <v>24264.428571428572</v>
       </c>
       <c r="B39" s="0">
         <v>38</v>
       </c>
       <c r="C39" s="0">
-        <v>7837.5403502363333</v>
+        <v>11388.036220650636</v>
       </c>
       <c r="D39" s="0">
-        <v>12407.594898153437</v>
+        <v>12747.938775510203</v>
       </c>
       <c r="E39" s="0">
-        <v>7836.8110748704667</v>
+        <v>11388.018029625735</v>
       </c>
       <c r="F39" s="0">
-        <v>0.72927536586711494</v>
+        <v>0.018191024901691218</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>18530.549019607843</v>
+        <v>23339.553571428572</v>
       </c>
       <c r="B40" s="0">
         <v>39</v>
       </c>
       <c r="C40" s="0">
-        <v>6630.4933956017439</v>
+        <v>10662.273904039326</v>
       </c>
       <c r="D40" s="0">
-        <v>12355.305730059014</v>
+        <v>12692.640306122448</v>
       </c>
       <c r="E40" s="0">
-        <v>6629.0500791292488</v>
+        <v>10662.231738709845</v>
       </c>
       <c r="F40" s="0">
-        <v>1.4433164724952814</v>
+        <v>0.04216532948163227</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>17439.784313725489</v>
+        <v>22223.267857142859</v>
       </c>
       <c r="B41" s="0">
         <v>40</v>
       </c>
       <c r="C41" s="0">
-        <v>5457.3661255398192</v>
+        <v>9698.4122765915035</v>
       </c>
       <c r="D41" s="0">
-        <v>12303.016561964592</v>
+        <v>12637.341836734693</v>
       </c>
       <c r="E41" s="0">
-        <v>5454.5857239716788</v>
+        <v>9698.3173250260643</v>
       </c>
       <c r="F41" s="0">
-        <v>2.780401568140479</v>
+        <v>0.094951565438895297</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>16549.529411764706</v>
+        <v>20971.017857142859</v>
       </c>
       <c r="B42" s="0">
         <v>41</v>
       </c>
       <c r="C42" s="0">
-        <v>4371.0834211438996</v>
+        <v>8570.447323196151</v>
       </c>
       <c r="D42" s="0">
-        <v>12250.727393870169</v>
+        <v>12582.043367346938</v>
       </c>
       <c r="E42" s="0">
-        <v>4365.8699207167729</v>
+        <v>8570.2395942292624</v>
       </c>
       <c r="F42" s="0">
-        <v>5.2135004271270802</v>
+        <v>0.20772896688862316</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>15473.529411764706</v>
+        <v>19558.910714285714</v>
       </c>
       <c r="B43" s="0">
         <v>42</v>
       </c>
       <c r="C43" s="0">
-        <v>3408.7282651167789</v>
+        <v>7358.0697095888609</v>
       </c>
       <c r="D43" s="0">
-        <v>12198.438225775748</v>
+        <v>12526.744897959183</v>
       </c>
       <c r="E43" s="0">
-        <v>3399.2128610684417</v>
+        <v>7357.6281998433769</v>
       </c>
       <c r="F43" s="0">
-        <v>9.5154040483370217</v>
+        <v>0.4415097454842305</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>14394.588235294117</v>
+        <v>18232.017857142859</v>
       </c>
       <c r="B44" s="0">
         <v>43</v>
       </c>
       <c r="C44" s="0">
-        <v>2591.3545538172884</v>
+        <v>6137.5568440957531</v>
       </c>
       <c r="D44" s="0">
-        <v>12146.149057681325</v>
+        <v>12471.446428571428</v>
       </c>
       <c r="E44" s="0">
-        <v>2574.4501060749608</v>
+        <v>6136.6451863456377</v>
       </c>
       <c r="F44" s="0">
-        <v>16.904447742327438</v>
+        <v>0.91165775011571559</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>13661.823529411764</v>
+        <v>17147.178571428572</v>
       </c>
       <c r="B45" s="0">
         <v>44</v>
       </c>
       <c r="C45" s="0">
-        <v>1925.8899920345548</v>
+        <v>4974.3024711842327</v>
       </c>
       <c r="D45" s="0">
-        <v>12093.859889586904</v>
+        <v>12416.147959183672</v>
       </c>
       <c r="E45" s="0">
-        <v>1896.6585209271962</v>
+        <v>4972.4736482327207</v>
       </c>
       <c r="F45" s="0">
-        <v>29.231471107358701</v>
+        <v>1.8288229515121313</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>13210.313725490196</v>
+        <v>16251.321428571429</v>
       </c>
       <c r="B46" s="0">
         <v>45</v>
       </c>
       <c r="C46" s="0">
-        <v>1408.4294238045195</v>
+        <v>3917.9377291873716</v>
       </c>
       <c r="D46" s="0">
-        <v>12041.570721492481</v>
+        <v>12360.849489795919</v>
       </c>
       <c r="E46" s="0">
-        <v>1359.2281564773873</v>
+        <v>3914.3735477863679</v>
       </c>
       <c r="F46" s="0">
-        <v>49.201267327132186</v>
+        <v>3.5641814010035548</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>13000.549019607843</v>
+        <v>15213.339285714286</v>
       </c>
       <c r="B47" s="0">
         <v>46</v>
       </c>
       <c r="C47" s="0">
-        <v>1028.1404694770392</v>
+        <v>3000.3936610303072</v>
       </c>
       <c r="D47" s="0">
-        <v>11989.281553398057</v>
+        <v>12305.551020408164</v>
       </c>
       <c r="E47" s="0">
-        <v>947.53252646025453</v>
+        <v>2993.6453321969138</v>
       </c>
       <c r="F47" s="0">
-        <v>80.607943016784702</v>
+        <v>6.7483288333934706</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>12895.019607843138</v>
+        <v>14192.053571428571</v>
       </c>
       <c r="B48" s="0">
         <v>47</v>
       </c>
       <c r="C48" s="0">
-        <v>771.07656419977911</v>
+        <v>2236.6791365152867</v>
       </c>
       <c r="D48" s="0">
-        <v>11936.992385303636</v>
+        <v>12250.252551020409</v>
       </c>
       <c r="E48" s="0">
-        <v>642.53152522917549</v>
+        <v>2224.2660159090228</v>
       </c>
       <c r="F48" s="0">
-        <v>128.54503897060366</v>
+        <v>12.413120606263698</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>12664.509803921568</v>
+        <v>13490.267857142857</v>
       </c>
       <c r="B49" s="0">
         <v>48</v>
       </c>
       <c r="C49" s="0">
-        <v>623.36181445311502</v>
+        <v>1627.7237050488072</v>
       </c>
       <c r="D49" s="0">
-        <v>11884.703217209215</v>
+        <v>12194.954081632653</v>
       </c>
       <c r="E49" s="0">
-        <v>423.83157035204749</v>
+        <v>1605.541025046168</v>
       </c>
       <c r="F49" s="0">
-        <v>199.53024410106755</v>
+        <v>22.182680002639326</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>12587.941176470587</v>
+        <v>13057.357142857143</v>
       </c>
       <c r="B50" s="0">
         <v>49</v>
       </c>
       <c r="C50" s="0">
-        <v>573.41685439366813</v>
+        <v>1164.423783793774</v>
       </c>
       <c r="D50" s="0">
-        <v>11832.414049114792</v>
+        <v>12139.655612244898</v>
       </c>
       <c r="E50" s="0">
-        <v>271.95103415508879</v>
+        <v>1125.9118474898298</v>
       </c>
       <c r="F50" s="0">
-        <v>301.46582023857934</v>
+        <v>38.511936303944168</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>12734.627450980392</v>
+        <v>12879.214285714286</v>
       </c>
       <c r="B51" s="0">
         <v>50</v>
       </c>
       <c r="C51" s="0">
-        <v>613.0875428183142</v>
+        <v>832.0280465054127</v>
       </c>
       <c r="D51" s="0">
-        <v>11780.124881020369</v>
+        <v>12084.357142857143</v>
       </c>
       <c r="E51" s="0">
-        <v>169.74096813291948</v>
+        <v>767.07119054920418</v>
       </c>
       <c r="F51" s="0">
-        <v>443.34657468539478</v>
+        <v>64.956855956208472</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>12932.568627450981</v>
+        <v>12776.303571428571</v>
       </c>
       <c r="B52" s="0">
         <v>51</v>
       </c>
       <c r="C52" s="0">
-        <v>737.6936755709952</v>
+        <v>614.1489879622427</v>
       </c>
       <c r="D52" s="0">
-        <v>11727.835712925948</v>
+        <v>12029.058673469388</v>
       </c>
       <c r="E52" s="0">
-        <v>103.05787516327364</v>
+        <v>507.70946035759425</v>
       </c>
       <c r="F52" s="0">
-        <v>634.6358004077216</v>
+        <v>106.43952760464839</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>13392.901960784313</v>
+        <v>12575.857142857143</v>
       </c>
       <c r="B53" s="0">
         <v>52</v>
       </c>
       <c r="C53" s="0">
-        <v>945.12944883774503</v>
+        <v>495.91506128062929</v>
       </c>
       <c r="D53" s="0">
-        <v>11675.546544831524</v>
+        <v>11973.760204081633</v>
       </c>
       <c r="E53" s="0">
-        <v>60.865927160006194</v>
+        <v>326.46989596487185</v>
       </c>
       <c r="F53" s="0">
-        <v>884.26352167773882</v>
+        <v>169.44516531575746</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>13636.823529411764</v>
+        <v>12503.732142857143</v>
       </c>
       <c r="B54" s="0">
         <v>53</v>
       </c>
       <c r="C54" s="0">
-        <v>1234.2315652283785</v>
+        <v>466.00974581479949</v>
       </c>
       <c r="D54" s="0">
-        <v>11623.257376737103</v>
+        <v>11918.461734693878</v>
       </c>
       <c r="E54" s="0">
-        <v>34.967601868835416</v>
+        <v>203.94794179109311</v>
       </c>
       <c r="F54" s="0">
-        <v>1199.2639633595431</v>
+        <v>262.06180402370637</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>13587.843137254902</v>
+        <v>12653.857142857143</v>
       </c>
       <c r="B55" s="0">
         <v>54</v>
       </c>
       <c r="C55" s="0">
-        <v>1602.6977026542008</v>
+        <v>517.53354507045015</v>
       </c>
       <c r="D55" s="0">
-        <v>11570.96820864268</v>
+        <v>11863.163265306122</v>
       </c>
       <c r="E55" s="0">
-        <v>19.541414843440034</v>
+        <v>123.77810055121026</v>
       </c>
       <c r="F55" s="0">
-        <v>1583.1562878107609</v>
+        <v>393.75544451923992</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>13971.764705882353</v>
+        <v>12859.410714285714</v>
       </c>
       <c r="B56" s="0">
         <v>55</v>
       </c>
       <c r="C56" s="0">
-        <v>2044.8935680619879</v>
+        <v>647.75694070725945</v>
       </c>
       <c r="D56" s="0">
-        <v>11518.679040548259</v>
+        <v>11807.864795918367</v>
       </c>
       <c r="E56" s="0">
-        <v>10.622939522264886</v>
+        <v>72.982141393319921</v>
       </c>
       <c r="F56" s="0">
-        <v>2034.270628539723</v>
+        <v>574.77479931393952</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>14213.529411764706</v>
+        <v>13312.767857142857</v>
       </c>
       <c r="B57" s="0">
         <v>56</v>
       </c>
       <c r="C57" s="0">
-        <v>2549.9248630236602</v>
+        <v>856.91768435533129</v>
       </c>
       <c r="D57" s="0">
-        <v>11466.389872453836</v>
+        <v>11752.566326530612</v>
       </c>
       <c r="E57" s="0">
-        <v>5.6173561841793322</v>
+        <v>41.805910949071603</v>
       </c>
       <c r="F57" s="0">
-        <v>2544.307506839481</v>
+        <v>815.11177340625966</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>14748.823529411764</v>
+        <v>13579.321428571429</v>
       </c>
       <c r="B58" s="0">
         <v>57</v>
       </c>
       <c r="C58" s="0">
-        <v>3100.3544266664553</v>
+        <v>1146.2785545241095</v>
       </c>
       <c r="D58" s="0">
-        <v>11414.100704359415</v>
+        <v>11697.267857142857</v>
       </c>
       <c r="E58" s="0">
-        <v>2.8894671719175311</v>
+        <v>23.265215588786177</v>
       </c>
       <c r="F58" s="0">
-        <v>3097.4649594945377</v>
+        <v>1123.0133389353234</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>15147.607843137255</v>
+        <v>13562.375</v>
       </c>
       <c r="B59" s="0">
         <v>58</v>
       </c>
       <c r="C59" s="0">
-        <v>3671.8942972872605</v>
+        <v>1515.7236859906079</v>
       </c>
       <c r="D59" s="0">
-        <v>11361.811536264991</v>
+        <v>11641.969387755102</v>
       </c>
       <c r="E59" s="0">
-        <v>1.4457796775066565</v>
+        <v>12.578381785698859</v>
       </c>
       <c r="F59" s="0">
-        <v>3670.4485176097537</v>
+        <v>1503.1453042049091</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>15574.078431372549</v>
+        <v>13956.446428571429</v>
       </c>
       <c r="B60" s="0">
         <v>59</v>
       </c>
       <c r="C60" s="0">
-        <v>4234.2840189038907</v>
+        <v>1961.2401924490821</v>
       </c>
       <c r="D60" s="0">
-        <v>11309.522368170568</v>
+        <v>11586.670918367347</v>
       </c>
       <c r="E60" s="0">
-        <v>0.70369589216235218</v>
+        <v>6.6067939860503113</v>
       </c>
       <c r="F60" s="0">
-        <v>4233.5803230117281</v>
+        <v>1954.6333984630319</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>15968.745098039215</v>
+        <v>14237.678571428571</v>
       </c>
       <c r="B61" s="0">
         <v>60</v>
       </c>
       <c r="C61" s="0">
-        <v>4753.3833918867358</v>
+        <v>2472.6947314252793</v>
       </c>
       <c r="D61" s="0">
-        <v>11257.233200076147</v>
+        <v>11531.372448979591</v>
       </c>
       <c r="E61" s="0">
-        <v>0.3331704417830581</v>
+        <v>3.3713594436747356</v>
       </c>
       <c r="F61" s="0">
-        <v>4753.0502214449525</v>
+        <v>2469.3233719816044</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>16243.803921568628</v>
+        <v>14786.892857142857</v>
       </c>
       <c r="B62" s="0">
         <v>61</v>
       </c>
       <c r="C62" s="0">
-        <v>5194.2848703952877</v>
+        <v>3032.3432339002866</v>
       </c>
       <c r="D62" s="0">
-        <v>11204.944031981726</v>
+        <v>11476.073979591836</v>
       </c>
       <c r="E62" s="0">
-        <v>0.1534427814872992</v>
+        <v>1.6713509495529495</v>
       </c>
       <c r="F62" s="0">
-        <v>5194.1314276138</v>
+        <v>3030.6718829507336</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>16461.098039215685</v>
+        <v>15207.696428571429</v>
       </c>
       <c r="B63" s="0">
         <v>62</v>
       </c>
       <c r="C63" s="0">
-        <v>5525.0320464530478</v>
+        <v>3614.4723334574601</v>
       </c>
       <c r="D63" s="0">
-        <v>11152.654863887303</v>
+        <v>11420.775510204081</v>
       </c>
       <c r="E63" s="0">
-        <v>0.068742450409233921</v>
+        <v>0.80496787336666875</v>
       </c>
       <c r="F63" s="0">
-        <v>5524.9633040026383</v>
+        <v>3613.6673655840932</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>16548.980392156864</v>
+        <v>15629.839285714286</v>
       </c>
       <c r="B64" s="0">
         <v>63</v>
       </c>
       <c r="C64" s="0">
-        <v>5720.3693074084513</v>
+        <v>4186.4393457394199</v>
       </c>
       <c r="D64" s="0">
-        <v>11100.36569579288</v>
+        <v>11365.477040816328</v>
       </c>
       <c r="E64" s="0">
-        <v>0.02995726109067353</v>
+        <v>0.37664980268184861</v>
       </c>
       <c r="F64" s="0">
-        <v>5720.3393501473602</v>
+        <v>4186.0626959367382</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>16455.450980392157</v>
+        <v>15987.321428571429</v>
       </c>
       <c r="B65" s="0">
         <v>64</v>
       </c>
       <c r="C65" s="0">
-        <v>5764.8074125337816</v>
+        <v>4711.1547317948343</v>
       </c>
       <c r="D65" s="0">
-        <v>11048.076527698458</v>
+        <v>11310.178571428571</v>
       </c>
       <c r="E65" s="0">
-        <v>0.012699240524226009</v>
+        <v>0.17121635284761205</v>
       </c>
       <c r="F65" s="0">
-        <v>5764.7947132932577</v>
+        <v>4710.983515441987</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>16232.019607843138</v>
+        <v>16240.839285714286</v>
       </c>
       <c r="B66" s="0">
         <v>65</v>
       </c>
       <c r="C66" s="0">
-        <v>5652.3730581969567</v>
+        <v>5150.7695203916555</v>
       </c>
       <c r="D66" s="0">
-        <v>10995.787359604035</v>
+        <v>11254.880102040817</v>
       </c>
       <c r="E66" s="0">
-        <v>0.0052366306342774239</v>
+        <v>0.075613795819587729</v>
       </c>
       <c r="F66" s="0">
-        <v>5652.3678215663222</v>
+        <v>5150.6939065958359</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>15939.686274509804</v>
+        <v>16423.375</v>
       </c>
       <c r="B67" s="0">
         <v>66</v>
       </c>
       <c r="C67" s="0">
-        <v>5391.0790778945948</v>
+        <v>5471.051146896436</v>
       </c>
       <c r="D67" s="0">
-        <v>10943.498191509614</v>
+        <v>11199.581632653062</v>
       </c>
       <c r="E67" s="0">
-        <v>0.0021005096644980902</v>
+        <v>0.032441814730425879</v>
       </c>
       <c r="F67" s="0">
-        <v>5391.0769773849306</v>
+        <v>5471.0187050817058</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>15593.784313725489</v>
+        <v>16464.803571428572</v>
       </c>
       <c r="B68" s="0">
         <v>67</v>
       </c>
       <c r="C68" s="0">
-        <v>5001.7187883124107</v>
+        <v>5645.7286244508059</v>
       </c>
       <c r="D68" s="0">
-        <v>10891.209023415191</v>
+        <v>11144.283163265307</v>
       </c>
       <c r="E68" s="0">
-        <v>0.00081958872457460886</v>
+        <v>0.013522517133499567</v>
       </c>
       <c r="F68" s="0">
-        <v>5001.7179687236858</v>
+        <v>5645.7151019336725</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>15508.588235294117</v>
+        <v>16361.803571428571</v>
       </c>
       <c r="B69" s="0">
         <v>68</v>
       </c>
       <c r="C69" s="0">
-        <v>4513.9988585438068</v>
+        <v>5660.0261668985822</v>
       </c>
       <c r="D69" s="0">
-        <v>10838.91985532077</v>
+        <v>11088.984693877552</v>
       </c>
       <c r="E69" s="0">
-        <v>0.00031107550496675191</v>
+        <v>0.0054759344660386044</v>
       </c>
       <c r="F69" s="0">
-        <v>4513.9985474683017</v>
+        <v>5660.0206909641165</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>15114.529411764706</v>
+        <v>16130.714285714286</v>
       </c>
       <c r="B70" s="0">
         <v>69</v>
       </c>
       <c r="C70" s="0">
-        <v>3962.8003425648449</v>
+        <v>5512.7151152677616</v>
       </c>
       <c r="D70" s="0">
-        <v>10786.630687226347</v>
+        <v>11033.686224489797</v>
       </c>
       <c r="E70" s="0">
-        <v>0.0001148508472811299</v>
+        <v>0.0021543052742063347</v>
       </c>
       <c r="F70" s="0">
-        <v>3962.8002277139976</v>
+        <v>5512.7129609624872</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>14093.588235294117</v>
+        <v>15799.964285714286</v>
       </c>
       <c r="B71" s="0">
         <v>70</v>
       </c>
       <c r="C71" s="0">
-        <v>3384.086829521972</v>
+        <v>5216.2825858006836</v>
       </c>
       <c r="D71" s="0">
-        <v>10734.341519131925</v>
+        <v>10978.387755102041</v>
       </c>
       <c r="E71" s="0">
-        <v>4.1247833341603731e-05</v>
+        <v>0.00082338802860039385</v>
       </c>
       <c r="F71" s="0">
-        <v>3384.0867882741386</v>
+        <v>5216.2817624126546</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>13611.901960784313</v>
+        <v>15449.839285714286</v>
       </c>
       <c r="B72" s="0">
         <v>71</v>
       </c>
       <c r="C72" s="0">
-        <v>2811.1198165908067</v>
+        <v>4795.1813128105505</v>
       </c>
       <c r="D72" s="0">
-        <v>10682.052351037502</v>
+        <v>10923.089285714286</v>
       </c>
       <c r="E72" s="0">
-        <v>1.4410087812141645e-05</v>
+        <v>0.00030573851594211705</v>
       </c>
       <c r="F72" s="0">
-        <v>2811.119802180719</v>
+        <v>4795.1810070720348</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>13181.176470588236</v>
+        <v>15312.660714285714</v>
       </c>
       <c r="B73" s="0">
         <v>72</v>
       </c>
       <c r="C73" s="0">
-        <v>2271.5158222915675</v>
+        <v>4282.4991053651711</v>
       </c>
       <c r="D73" s="0">
-        <v>10629.763182943079</v>
+        <v>10867.790816326531</v>
       </c>
       <c r="E73" s="0">
-        <v>4.8970062980553863e-06</v>
+        <v>0.0001102920118923284</v>
       </c>
       <c r="F73" s="0">
-        <v>2271.5158173945611</v>
+        <v>4282.4989950731588</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>12783.666666666666</v>
+        <v>14915.803571428571</v>
       </c>
       <c r="B74" s="0">
         <v>73</v>
       </c>
       <c r="C74" s="0">
-        <v>1785.4624683119703</v>
+        <v>3715.6760194311955</v>
       </c>
       <c r="D74" s="0">
-        <v>10577.474014848658</v>
+        <v>10812.492346938776</v>
       </c>
       <c r="E74" s="0">
-        <v>1.6188001899223247e-06</v>
+        <v>3.8653272265237696e-05</v>
       </c>
       <c r="F74" s="0">
-        <v>1785.46246669317</v>
+        <v>3715.6759807779231</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>12431.215686274511</v>
+        <v>13936.964285714286</v>
       </c>
       <c r="B75" s="0">
         <v>74</v>
       </c>
       <c r="C75" s="0">
-        <v>1365.1621347353</v>
+        <v>3132.0356971803176</v>
       </c>
       <c r="D75" s="0">
-        <v>10525.184846754237</v>
+        <v>10757.193877551021</v>
       </c>
       <c r="E75" s="0">
-        <v>5.2054032589856261e-07</v>
+        <v>1.3160632855715765e-05</v>
       </c>
       <c r="F75" s="0">
-        <v>1365.1621342147596</v>
+        <v>3132.0356840196846</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>12078.803921568628</v>
+        <v>13465.017857142857</v>
       </c>
       <c r="B76" s="0">
         <v>75</v>
       </c>
       <c r="C76" s="0">
-        <v>1015.3512111494138</v>
+        <v>2564.8612105005204</v>
       </c>
       <c r="D76" s="0">
-        <v>10472.895678659814</v>
+        <v>10701.895408163266</v>
       </c>
       <c r="E76" s="0">
-        <v>1.6282236608110505e-07</v>
+        <v>4.3532697863475984e-06</v>
       </c>
       <c r="F76" s="0">
-        <v>1015.3512109865914</v>
+        <v>2564.8612061472509</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>11831.411764705883</v>
+        <v>13045.875</v>
       </c>
       <c r="B77" s="0">
         <v>76</v>
       </c>
       <c r="C77" s="0">
-        <v>734.59318925711364</v>
+        <v>2040.5598517414294</v>
       </c>
       <c r="D77" s="0">
-        <v>10420.606510565391</v>
+        <v>10646.59693877551</v>
       </c>
       <c r="E77" s="0">
-        <v>4.954185822780375e-08</v>
+        <v>1.3989516105966679e-06</v>
       </c>
       <c r="F77" s="0">
-        <v>734.59318920757175</v>
+        <v>2040.5598503424778</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>11476.960784313726</v>
+        <v>12654.946428571429</v>
       </c>
       <c r="B78" s="0">
         <v>77</v>
       </c>
       <c r="C78" s="0">
-        <v>516.98275035776021</v>
+        <v>1577.1867029083849</v>
       </c>
       <c r="D78" s="0">
-        <v>10368.317342470969</v>
+        <v>10591.298469387755</v>
       </c>
       <c r="E78" s="0">
-        <v>1.466321058576953e-08</v>
+        <v>4.3675521934084783e-07</v>
       </c>
       <c r="F78" s="0">
-        <v>516.982750343097</v>
+        <v>1577.1867024716296</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>11209.490196078432</v>
+        <v>12298.410714285714</v>
       </c>
       <c r="B79" s="0">
         <v>78</v>
       </c>
       <c r="C79" s="0">
-        <v>353.9189010148263</v>
+        <v>1184.3094028824646</v>
       </c>
       <c r="D79" s="0">
-        <v>10316.028174376546</v>
+        <v>10536</v>
       </c>
       <c r="E79" s="0">
-        <v>4.2216711455965627e-09</v>
+        <v>1.3247130531166208e-07</v>
       </c>
       <c r="F79" s="0">
-        <v>353.91890101060466</v>
+        <v>1184.3094027499933</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>11067.470588235294</v>
+        <v>11942.017857142857</v>
       </c>
       <c r="B80" s="0">
         <v>79</v>
       </c>
       <c r="C80" s="0">
-        <v>235.68395077500409</v>
+        <v>863.96380594096524</v>
       </c>
       <c r="D80" s="0">
-        <v>10263.739006282125</v>
+        <v>10480.701530612245</v>
       </c>
       <c r="E80" s="0">
-        <v>1.1823288242084147e-09</v>
+        <v>3.9034968098201355e-08</v>
       </c>
       <c r="F80" s="0">
-        <v>235.68395077382178</v>
+        <v>863.9638059019303</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>10863.588235294117</v>
+        <v>11703.571428571429</v>
       </c>
       <c r="B81" s="0">
         <v>80</v>
       </c>
       <c r="C81" s="0">
-        <v>152.6703887437711</v>
+        <v>612.31404549273248</v>
       </c>
       <c r="D81" s="0">
-        <v>10211.449838187702</v>
+        <v>10425.40306122449</v>
       </c>
       <c r="E81" s="0">
-        <v>3.2209998427249909e-10</v>
+        <v>1.1174655490350713e-08</v>
       </c>
       <c r="F81" s="0">
-        <v>152.670388743449</v>
+        <v>612.31404548155786</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>10597.470588235294</v>
+        <v>11361.767857142857</v>
       </c>
       <c r="B82" s="0">
         <v>81</v>
       </c>
       <c r="C82" s="0">
-        <v>96.200684475820324</v>
+        <v>421.60057568537616</v>
       </c>
       <c r="D82" s="0">
-        <v>10159.160670093279</v>
+        <v>10370.104591836734</v>
       </c>
       <c r="E82" s="0">
-        <v>8.5357498408042464e-11</v>
+        <v>3.10786938317624e-09</v>
       </c>
       <c r="F82" s="0">
-        <v>96.200684475734974</v>
+        <v>421.6005756822683</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>10463.784313725489</v>
+        <v>11112.214285714286</v>
       </c>
       <c r="B83" s="0">
         <v>82</v>
       </c>
       <c r="C83" s="0">
-        <v>58.965781879428548</v>
+        <v>282.01776724639609</v>
       </c>
       <c r="D83" s="0">
-        <v>10106.871501998858</v>
+        <v>10314.806122448979</v>
       </c>
       <c r="E83" s="0">
-        <v>2.2003471368639159e-11</v>
+        <v>8.3973001031712078e-10</v>
       </c>
       <c r="F83" s="0">
-        <v>58.965781879406542</v>
+        <v>282.01776724555634</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>10334.235294117647</v>
+        <v>10964.982142857143</v>
       </c>
       <c r="B84" s="0">
         <v>83</v>
       </c>
       <c r="C84" s="0">
-        <v>35.157704371375402</v>
+        <v>183.27365696983495</v>
       </c>
       <c r="D84" s="0">
-        <v>10054.582333904436</v>
+        <v>10259.507653061224</v>
       </c>
       <c r="E84" s="0">
-        <v>5.517461040899789e-12</v>
+        <v>2.2042705156679335e-10</v>
       </c>
       <c r="F84" s="0">
-        <v>35.157704371369881</v>
+        <v>183.27365696961451</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>10180.117647058823</v>
+        <v>10777.160714285714</v>
       </c>
       <c r="B85" s="0">
         <v>84</v>
       </c>
       <c r="C85" s="0">
-        <v>20.391046134934498</v>
+        <v>115.71027412779411</v>
       </c>
       <c r="D85" s="0">
-        <v>10002.293165810013</v>
+        <v>10204.209183673469</v>
       </c>
       <c r="E85" s="0">
-        <v>1.3458166497884828e-12</v>
+        <v>5.6213213094584464e-11</v>
       </c>
       <c r="F85" s="0">
-        <v>20.391046134933152</v>
+        <v>115.71027412773789</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>10107.098039215687</v>
+        <v>10507.625</v>
       </c>
       <c r="B86" s="0">
         <v>85</v>
       </c>
       <c r="C86" s="0">
-        <v>11.50421668979941</v>
+        <v>70.972826321262815</v>
       </c>
       <c r="D86" s="0">
-        <v>9950.0039977155902</v>
+        <v>10148.910714285714</v>
       </c>
       <c r="E86" s="0">
-        <v>3.1932363718115931e-13</v>
+        <v>1.3927085096787284e-11</v>
       </c>
       <c r="F86" s="0">
-        <v>11.50421668979909</v>
+        <v>70.972826321248888</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>10041.803921568628</v>
+        <v>10368.267857142857</v>
       </c>
       <c r="B87" s="0">
         <v>86</v>
       </c>
       <c r="C87" s="0">
-        <v>6.3135430819626066</v>
+        <v>42.29222939511348</v>
       </c>
       <c r="D87" s="0">
-        <v>9897.714829621169</v>
+        <v>10093.612244897959</v>
       </c>
       <c r="E87" s="0">
-        <v>7.3701238627209556e-14</v>
+        <v>3.3522033025033297e-12</v>
       </c>
       <c r="F87" s="0">
-        <v>6.3135430819625329</v>
+        <v>42.292229395110127</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>9962.3137254901958</v>
+        <v>10241.178571428571</v>
       </c>
       <c r="B88" s="0">
         <v>87</v>
       </c>
       <c r="C88" s="0">
-        <v>3.3704492496973395</v>
+        <v>24.483717457561799</v>
       </c>
       <c r="D88" s="0">
-        <v>9845.4256615267477</v>
+        <v>10038.313775510203</v>
       </c>
       <c r="E88" s="0">
-        <v>1.6546915721200718e-14</v>
+        <v>7.838785327147284e-13</v>
       </c>
       <c r="F88" s="0">
-        <v>3.3704492496973231</v>
+        <v>24.483717457561013</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>9733.3921568627447</v>
+        <v>10082.553571428571</v>
       </c>
       <c r="B89" s="0">
         <v>88</v>
       </c>
       <c r="C89" s="0">
-        <v>1.7502536212319444</v>
+        <v>13.770269502133118</v>
       </c>
       <c r="D89" s="0">
-        <v>9793.1364934323246</v>
+        <v>9983.0153061224482</v>
       </c>
       <c r="E89" s="0">
-        <v>3.6137480636683432e-15</v>
+        <v>1.7808014208341528e-13</v>
       </c>
       <c r="F89" s="0">
-        <v>1.7502536212319408</v>
+        <v>13.77026950213294</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>9638.7647058823532</v>
+        <v>10014.714285714286</v>
       </c>
       <c r="B90" s="0">
         <v>89</v>
       </c>
       <c r="C90" s="0">
-        <v>0.88412307690396719</v>
+        <v>7.524121882857659</v>
       </c>
       <c r="D90" s="0">
-        <v>9740.8473253379016</v>
+        <v>9927.7168367346931</v>
       </c>
       <c r="E90" s="0">
-        <v>7.6771007115364004e-16</v>
+        <v>3.9303435811429957e-14</v>
       </c>
       <c r="F90" s="0">
-        <v>0.88412307690396641</v>
+        <v>7.52412188285762</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>9600.9607843137255</v>
+        <v>9953.1607142857138</v>
       </c>
       <c r="B91" s="0">
         <v>90</v>
       </c>
       <c r="C91" s="0">
-        <v>0.43443320962571025</v>
+        <v>3.9940868580331639</v>
       </c>
       <c r="D91" s="0">
-        <v>9688.5581572434785</v>
+        <v>9872.4183673469379</v>
       </c>
       <c r="E91" s="0">
-        <v>1.5864820134618719e-16</v>
+        <v>8.4274045349427788e-15</v>
       </c>
       <c r="F91" s="0">
-        <v>0.43443320962571008</v>
+        <v>3.9940868580331554</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>9487.3333333333339</v>
+        <v>9874.2142857142862</v>
       </c>
       <c r="B92" s="0">
         <v>91</v>
       </c>
       <c r="C92" s="0">
-        <v>0.20764996209450626</v>
+        <v>2.0598115506322667</v>
       </c>
       <c r="D92" s="0">
-        <v>9636.2689891490572</v>
+        <v>9817.1198979591827</v>
       </c>
       <c r="E92" s="0">
-        <v>3.1891255457035447e-17</v>
+        <v>1.7555187289989578e-15</v>
       </c>
       <c r="F92" s="0">
-        <v>0.20764996209450623</v>
+        <v>2.059811550632265</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>9473</v>
+        <v>9641.0892857142862</v>
       </c>
       <c r="B93" s="0">
         <v>92</v>
       </c>
       <c r="C93" s="0">
-        <v>0.09654710244252182</v>
+        <v>1.0320144406953389</v>
       </c>
       <c r="D93" s="0">
-        <v>9583.979821054636</v>
+        <v>9761.8214285714275</v>
       </c>
       <c r="E93" s="0">
-        <v>6.2360075007943321e-18</v>
+        <v>3.5527561000065715e-16</v>
       </c>
       <c r="F93" s="0">
-        <v>0.09654710244252182</v>
+        <v>1.0320144406953384</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>9401.823529411764</v>
+        <v>9559.5178571428569</v>
       </c>
       <c r="B94" s="0">
         <v>93</v>
       </c>
       <c r="C94" s="0">
-        <v>0.043666178056819702</v>
+        <v>0.50233375305103134</v>
       </c>
       <c r="D94" s="0">
-        <v>9531.6906529602129</v>
+        <v>9706.5229591836724</v>
       </c>
       <c r="E94" s="0">
-        <v>1.1861515761791766e-18</v>
+        <v>6.9851159798591058e-17</v>
       </c>
       <c r="F94" s="0">
-        <v>0.043666178056819702</v>
+        <v>0.50233375305103123</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>9419.2745098039213</v>
+        <v>9515.1785714285706</v>
       </c>
       <c r="B95" s="0">
         <v>94</v>
       </c>
       <c r="C95" s="0">
-        <v>0.019210986519004287</v>
+        <v>0.2375457406661951</v>
       </c>
       <c r="D95" s="0">
-        <v>9479.4014848657898</v>
+        <v>9651.2244897959172</v>
       </c>
       <c r="E95" s="0">
-        <v>2.194685531402918e-19</v>
+        <v>1.3342283063336529e-17</v>
       </c>
       <c r="F95" s="0">
-        <v>0.019210986519004287</v>
+        <v>0.2375457406661951</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>9216.7647058823532</v>
+        <v>9406.4642857142862</v>
       </c>
       <c r="B96" s="0">
         <v>95</v>
       </c>
       <c r="C96" s="0">
-        <v>0.0082215310628769994</v>
+        <v>0.10913157823717964</v>
       </c>
       <c r="D96" s="0">
-        <v>9427.1123167713686</v>
+        <v>9595.926020408162</v>
       </c>
       <c r="E96" s="0">
-        <v>3.9500533349924094e-20</v>
+        <v>2.4759107185651161e-18</v>
       </c>
       <c r="F96" s="0">
-        <v>0.0082215310628769994</v>
+        <v>0.10913157823717964</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>9232.7058823529405</v>
+        <v>9380.7678571428569</v>
       </c>
       <c r="B97" s="0">
         <v>96</v>
       </c>
       <c r="C97" s="0">
-        <v>0.0034225853385545803</v>
+        <v>0.048708182570438047</v>
       </c>
       <c r="D97" s="0">
-        <v>9374.8231486769473</v>
+        <v>9540.6275510204086</v>
       </c>
       <c r="E97" s="0">
-        <v>6.9156366568385742e-21</v>
+        <v>4.4636292080999682e-19</v>
       </c>
       <c r="F97" s="0">
-        <v>0.0034225853385545803</v>
+        <v>0.048708182570438047</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>9166.9019607843129</v>
+        <v>9321.4107142857138</v>
       </c>
       <c r="B98" s="0">
         <v>97</v>
       </c>
       <c r="C98" s="0">
-        <v>0.0013859718772518943</v>
+        <v>0.021120379403925738</v>
       </c>
       <c r="D98" s="0">
-        <v>9322.5339805825242</v>
+        <v>9485.3290816326517</v>
       </c>
       <c r="E98" s="0">
-        <v>1.1777684722683885e-21</v>
+        <v>7.8178897680455367e-20</v>
       </c>
       <c r="F98" s="0">
-        <v>0.0013859718772518943</v>
+        <v>0.021120379403925738</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>9113.5098039215682</v>
+        <v>9318.25</v>
       </c>
       <c r="B99" s="0">
         <v>98</v>
       </c>
       <c r="C99" s="0">
-        <v>0.00054595028802356606</v>
+        <v>0.0088971273497047958</v>
       </c>
       <c r="D99" s="0">
-        <v>9270.2448124881012</v>
+        <v>9430.0306122448965</v>
       </c>
       <c r="E99" s="0">
-        <v>1.9511301062474798e-22</v>
+        <v>1.330268402387802e-20</v>
       </c>
       <c r="F99" s="0">
-        <v>0.00054595028802356606</v>
+        <v>0.0088971273497047958</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>9055.4705882352937</v>
+        <v>9141.375</v>
       </c>
       <c r="B100" s="0">
         <v>99</v>
       </c>
       <c r="C100" s="0">
-        <v>0.00020919453250741897</v>
+        <v>0.003641213961994788</v>
       </c>
       <c r="D100" s="0">
-        <v>9217.9556443936781</v>
+        <v>9374.7321428571431</v>
       </c>
       <c r="E100" s="0">
-        <v>3.1442066708740086e-23</v>
+        <v>2.1990611668296969e-21</v>
       </c>
       <c r="F100" s="0">
-        <v>0.00020919453250741897</v>
+        <v>0.003641213961994788</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>9051.3137254901958</v>
+        <v>9149.9642857142862</v>
       </c>
       <c r="B101" s="0">
         <v>100</v>
       </c>
       <c r="C101" s="0">
-        <v>7.7973334800649058e-05</v>
+        <v>0.001447741063361005</v>
       </c>
       <c r="D101" s="0">
-        <v>9165.6664762992586</v>
+        <v>9319.4336734693879</v>
       </c>
       <c r="E101" s="0">
-        <v>4.928723876579554e-24</v>
+        <v>3.5316986909831963e-22</v>
       </c>
       <c r="F101" s="0">
-        <v>7.7973334800649058e-05</v>
+        <v>0.001447741063361005</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>9037.6862745098042</v>
+        <v>9083.9821428571431</v>
       </c>
       <c r="B102" s="0">
         <v>101</v>
       </c>
       <c r="C102" s="0">
-        <v>2.8270952224001434e-05</v>
+        <v>0.00055922153504609103</v>
       </c>
       <c r="D102" s="0">
-        <v>9113.3773082048356</v>
+        <v>9264.1352040816309</v>
       </c>
       <c r="E102" s="0">
-        <v>7.5154751047908637e-25</v>
+        <v>5.5103385257147134e-23</v>
       </c>
       <c r="F102" s="0">
-        <v>2.8270952224001434e-05</v>
+        <v>0.00055922153504609103</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>9059.7647058823532</v>
+        <v>9026.8035714285706</v>
       </c>
       <c r="B103" s="0">
         <v>102</v>
       </c>
       <c r="C103" s="0">
-        <v>9.970875957886373e-06</v>
+        <v>0.00020985783243292181</v>
       </c>
       <c r="D103" s="0">
-        <v>9061.0881401104125</v>
+        <v>9208.8367346938758</v>
       </c>
       <c r="E103" s="0">
-        <v>1.1147486156575589e-25</v>
+        <v>8.352591029937952e-24</v>
       </c>
       <c r="F103" s="0">
-        <v>9.970875957886373e-06</v>
+        <v>0.00020985783243292181</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>9033.6862745098042</v>
+        <v>8997.6785714285706</v>
       </c>
       <c r="B104" s="0">
         <v>103</v>
       </c>
       <c r="C104" s="0">
-        <v>3.420776808074229e-06</v>
+        <v>7.6509397049708022e-05</v>
       </c>
       <c r="D104" s="0">
-        <v>9008.7989720159894</v>
+        <v>9153.5382653061224</v>
       </c>
       <c r="E104" s="0">
-        <v>1.6084071377255983e-26</v>
+        <v>1.2300208000143583e-24</v>
       </c>
       <c r="F104" s="0">
-        <v>3.420776808074229e-06</v>
+        <v>7.6509397049708022e-05</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>8956.5098039215682</v>
+        <v>8991.6428571428569</v>
       </c>
       <c r="B105" s="0">
         <v>104</v>
       </c>
       <c r="C105" s="0">
-        <v>1.1416019808515284e-06</v>
+        <v>2.7098963315775903e-05</v>
       </c>
       <c r="D105" s="0">
-        <v>8956.5098039215682</v>
+        <v>9098.2397959183672</v>
       </c>
       <c r="E105" s="0">
-        <v>2.2574263528612191e-27</v>
+        <v>1.7597541363037929e-25</v>
       </c>
       <c r="F105" s="0">
-        <v>1.1416019808515284e-06</v>
+        <v>2.7098963315775903e-05</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0">
+        <v>8956.0357142857138</v>
+      </c>
+      <c r="B106" s="0">
+        <v>105</v>
+      </c>
+      <c r="C106" s="0">
+        <v>9.3247860427944704e-06</v>
+      </c>
+      <c r="D106" s="0">
+        <v>9042.9413265306121</v>
+      </c>
+      <c r="E106" s="0">
+        <v>2.445906408093881e-26</v>
+      </c>
+      <c r="F106" s="0">
+        <v>9.3247860427944704e-06</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0">
+        <v>8987.6428571428569</v>
+      </c>
+      <c r="B107" s="0">
+        <v>106</v>
+      </c>
+      <c r="C107" s="0">
+        <v>3.117262502246013e-06</v>
+      </c>
+      <c r="D107" s="0">
+        <v>8987.6428571428569</v>
+      </c>
+      <c r="E107" s="0">
+        <v>3.3027520902097759e-27</v>
+      </c>
+      <c r="F107" s="0">
+        <v>3.117262502246013e-06</v>
       </c>
     </row>
   </sheetData>
